--- a/HS.BA.Unemployment.Employment.byState.xlsx
+++ b/HS.BA.Unemployment.Employment.byState.xlsx
@@ -10,12 +10,13 @@
     <sheet name="BA" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Unemployment" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Total Employment" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sample Size" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -192,6 +193,12 @@
   </si>
   <si>
     <t xml:space="preserve">WY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hearing</t>
   </si>
 </sst>
 </file>
@@ -557,13 +564,13 @@
         <v>0.1</v>
       </c>
       <c r="D2" t="n">
-        <v>82.4</v>
+        <v>88.7</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>82.4</v>
+        <v>-6.3</v>
       </c>
       <c r="G2" t="n">
         <v>0.1</v>
@@ -580,13 +587,13 @@
         <v>3.3</v>
       </c>
       <c r="D3" t="n">
-        <v>82.2</v>
+        <v>91.6</v>
       </c>
       <c r="E3" t="n">
         <v>0.3</v>
       </c>
       <c r="F3" t="n">
-        <v>82.2</v>
+        <v>-9.4</v>
       </c>
       <c r="G3" t="n">
         <v>3.3</v>
@@ -603,13 +610,13 @@
         <v>0.9</v>
       </c>
       <c r="D4" t="n">
-        <v>78.9</v>
+        <v>87.3</v>
       </c>
       <c r="E4" t="n">
         <v>0.1</v>
       </c>
       <c r="F4" t="n">
-        <v>78.9</v>
+        <v>-8.4</v>
       </c>
       <c r="G4" t="n">
         <v>0.9</v>
@@ -626,13 +633,13 @@
         <v>1.8</v>
       </c>
       <c r="D5" t="n">
-        <v>88.7</v>
+        <v>93.5</v>
       </c>
       <c r="E5" t="n">
         <v>0.3</v>
       </c>
       <c r="F5" t="n">
-        <v>88.7</v>
+        <v>-4.8</v>
       </c>
       <c r="G5" t="n">
         <v>1.8</v>
@@ -649,13 +656,13 @@
         <v>0.8</v>
       </c>
       <c r="D6" t="n">
-        <v>83.7</v>
+        <v>86.6</v>
       </c>
       <c r="E6" t="n">
         <v>0.1</v>
       </c>
       <c r="F6" t="n">
-        <v>83.7</v>
+        <v>-3</v>
       </c>
       <c r="G6" t="n">
         <v>0.8</v>
@@ -672,13 +679,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>79.3</v>
+        <v>87.8</v>
       </c>
       <c r="E7" t="n">
         <v>0.2</v>
       </c>
       <c r="F7" t="n">
-        <v>79.3</v>
+        <v>-8.5</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -695,13 +702,13 @@
         <v>0.4</v>
       </c>
       <c r="D8" t="n">
-        <v>77.6</v>
+        <v>83.1</v>
       </c>
       <c r="E8" t="n">
         <v>0.1</v>
       </c>
       <c r="F8" t="n">
-        <v>77.6</v>
+        <v>-5.5</v>
       </c>
       <c r="G8" t="n">
         <v>0.4</v>
@@ -718,13 +725,13 @@
         <v>0.9</v>
       </c>
       <c r="D9" t="n">
-        <v>88.2</v>
+        <v>91.5</v>
       </c>
       <c r="E9" t="n">
         <v>0.1</v>
       </c>
       <c r="F9" t="n">
-        <v>88.2</v>
+        <v>-3.3</v>
       </c>
       <c r="G9" t="n">
         <v>0.9</v>
@@ -741,13 +748,13 @@
         <v>1.2</v>
       </c>
       <c r="D10" t="n">
-        <v>87.1</v>
+        <v>92.3</v>
       </c>
       <c r="E10" t="n">
         <v>0.1</v>
       </c>
       <c r="F10" t="n">
-        <v>87.1</v>
+        <v>-5.3</v>
       </c>
       <c r="G10" t="n">
         <v>1.2</v>
@@ -764,13 +771,13 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>82.4</v>
+        <v>90.5</v>
       </c>
       <c r="E11" t="n">
         <v>0.3</v>
       </c>
       <c r="F11" t="n">
-        <v>82.4</v>
+        <v>-8.1</v>
       </c>
       <c r="G11" t="n">
         <v>2.1</v>
@@ -787,13 +794,13 @@
         <v>0.5</v>
       </c>
       <c r="D12" t="n">
-        <v>83.3</v>
+        <v>89</v>
       </c>
       <c r="E12" t="n">
         <v>0.1</v>
       </c>
       <c r="F12" t="n">
-        <v>83.3</v>
+        <v>-5.7</v>
       </c>
       <c r="G12" t="n">
         <v>0.5</v>
@@ -810,13 +817,13 @@
         <v>0.6</v>
       </c>
       <c r="D13" t="n">
-        <v>80.8</v>
+        <v>87.8</v>
       </c>
       <c r="E13" t="n">
         <v>0.1</v>
       </c>
       <c r="F13" t="n">
-        <v>80.8</v>
+        <v>-7</v>
       </c>
       <c r="G13" t="n">
         <v>0.6</v>
@@ -833,13 +840,13 @@
         <v>1.3</v>
       </c>
       <c r="D14" t="n">
-        <v>90.6</v>
+        <v>93.8</v>
       </c>
       <c r="E14" t="n">
         <v>0.2</v>
       </c>
       <c r="F14" t="n">
-        <v>90.6</v>
+        <v>-3.2</v>
       </c>
       <c r="G14" t="n">
         <v>1.3</v>
@@ -856,13 +863,13 @@
         <v>1.4</v>
       </c>
       <c r="D15" t="n">
-        <v>87.8</v>
+        <v>90.7</v>
       </c>
       <c r="E15" t="n">
         <v>0.2</v>
       </c>
       <c r="F15" t="n">
-        <v>87.8</v>
+        <v>-2.9</v>
       </c>
       <c r="G15" t="n">
         <v>1.4</v>
@@ -879,13 +886,13 @@
         <v>0.6</v>
       </c>
       <c r="D16" t="n">
-        <v>84.7</v>
+        <v>90.1</v>
       </c>
       <c r="E16" t="n">
         <v>0.1</v>
       </c>
       <c r="F16" t="n">
-        <v>84.7</v>
+        <v>-5.4</v>
       </c>
       <c r="G16" t="n">
         <v>0.6</v>
@@ -902,13 +909,13 @@
         <v>0.8</v>
       </c>
       <c r="D17" t="n">
-        <v>82.3</v>
+        <v>89.9</v>
       </c>
       <c r="E17" t="n">
         <v>0.1</v>
       </c>
       <c r="F17" t="n">
-        <v>82.3</v>
+        <v>-7.6</v>
       </c>
       <c r="G17" t="n">
         <v>0.8</v>
@@ -925,13 +932,13 @@
         <v>0.9</v>
       </c>
       <c r="D18" t="n">
-        <v>88.2</v>
+        <v>93.4</v>
       </c>
       <c r="E18" t="n">
         <v>0.1</v>
       </c>
       <c r="F18" t="n">
-        <v>88.2</v>
+        <v>-5.2</v>
       </c>
       <c r="G18" t="n">
         <v>0.9</v>
@@ -948,13 +955,13 @@
         <v>1.2</v>
       </c>
       <c r="D19" t="n">
-        <v>85.5</v>
+        <v>91.2</v>
       </c>
       <c r="E19" t="n">
         <v>0.2</v>
       </c>
       <c r="F19" t="n">
-        <v>85.5</v>
+        <v>-5.7</v>
       </c>
       <c r="G19" t="n">
         <v>1.2</v>
@@ -971,13 +978,13 @@
         <v>0.8</v>
       </c>
       <c r="D20" t="n">
-        <v>74.9</v>
+        <v>88</v>
       </c>
       <c r="E20" t="n">
         <v>0.2</v>
       </c>
       <c r="F20" t="n">
-        <v>74.9</v>
+        <v>-13.1</v>
       </c>
       <c r="G20" t="n">
         <v>0.8</v>
@@ -994,13 +1001,13 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>76.5</v>
+        <v>86.4</v>
       </c>
       <c r="E21" t="n">
         <v>0.1</v>
       </c>
       <c r="F21" t="n">
-        <v>76.5</v>
+        <v>-9.9</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1017,13 +1024,13 @@
         <v>1.4</v>
       </c>
       <c r="D22" t="n">
-        <v>88.7</v>
+        <v>94.4</v>
       </c>
       <c r="E22" t="n">
         <v>0.2</v>
       </c>
       <c r="F22" t="n">
-        <v>88.7</v>
+        <v>-5.7</v>
       </c>
       <c r="G22" t="n">
         <v>1.4</v>
@@ -1040,13 +1047,13 @@
         <v>0.9</v>
       </c>
       <c r="D23" t="n">
-        <v>85.8</v>
+        <v>91.4</v>
       </c>
       <c r="E23" t="n">
         <v>0.1</v>
       </c>
       <c r="F23" t="n">
-        <v>85.8</v>
+        <v>-5.6</v>
       </c>
       <c r="G23" t="n">
         <v>0.9</v>
@@ -1063,13 +1070,13 @@
         <v>0.7</v>
       </c>
       <c r="D24" t="n">
-        <v>83.3</v>
+        <v>92.2</v>
       </c>
       <c r="E24" t="n">
         <v>0.1</v>
       </c>
       <c r="F24" t="n">
-        <v>83.3</v>
+        <v>-8.9</v>
       </c>
       <c r="G24" t="n">
         <v>0.7</v>
@@ -1086,13 +1093,13 @@
         <v>0.6</v>
       </c>
       <c r="D25" t="n">
-        <v>84.3</v>
+        <v>91.7</v>
       </c>
       <c r="E25" t="n">
         <v>0.1</v>
       </c>
       <c r="F25" t="n">
-        <v>84.3</v>
+        <v>-7.4</v>
       </c>
       <c r="G25" t="n">
         <v>0.6</v>
@@ -1109,13 +1116,13 @@
         <v>0.7</v>
       </c>
       <c r="D26" t="n">
-        <v>89</v>
+        <v>93.9</v>
       </c>
       <c r="E26" t="n">
         <v>0.1</v>
       </c>
       <c r="F26" t="n">
-        <v>89</v>
+        <v>-4.9</v>
       </c>
       <c r="G26" t="n">
         <v>0.7</v>
@@ -1132,13 +1139,13 @@
         <v>1.1</v>
       </c>
       <c r="D27" t="n">
-        <v>74.3</v>
+        <v>86.3</v>
       </c>
       <c r="E27" t="n">
         <v>0.2</v>
       </c>
       <c r="F27" t="n">
-        <v>74.3</v>
+        <v>-12</v>
       </c>
       <c r="G27" t="n">
         <v>1.1</v>
@@ -1155,13 +1162,13 @@
         <v>0.7</v>
       </c>
       <c r="D28" t="n">
-        <v>83.5</v>
+        <v>91</v>
       </c>
       <c r="E28" t="n">
         <v>0.1</v>
       </c>
       <c r="F28" t="n">
-        <v>83.5</v>
+        <v>-7.5</v>
       </c>
       <c r="G28" t="n">
         <v>0.7</v>
@@ -1178,13 +1185,13 @@
         <v>1.4</v>
       </c>
       <c r="D29" t="n">
-        <v>90.6</v>
+        <v>94.1</v>
       </c>
       <c r="E29" t="n">
         <v>0.2</v>
       </c>
       <c r="F29" t="n">
-        <v>90.6</v>
+        <v>-3.5</v>
       </c>
       <c r="G29" t="n">
         <v>1.4</v>
@@ -1201,13 +1208,13 @@
         <v>1.2</v>
       </c>
       <c r="D30" t="n">
-        <v>89.9</v>
+        <v>91.5</v>
       </c>
       <c r="E30" t="n">
         <v>0.2</v>
       </c>
       <c r="F30" t="n">
-        <v>89.9</v>
+        <v>-1.5</v>
       </c>
       <c r="G30" t="n">
         <v>1.2</v>
@@ -1224,13 +1231,13 @@
         <v>1.1</v>
       </c>
       <c r="D31" t="n">
-        <v>83.5</v>
+        <v>86</v>
       </c>
       <c r="E31" t="n">
         <v>0.1</v>
       </c>
       <c r="F31" t="n">
-        <v>83.5</v>
+        <v>-2.5</v>
       </c>
       <c r="G31" t="n">
         <v>1.1</v>
@@ -1247,13 +1254,13 @@
         <v>1.4</v>
       </c>
       <c r="D32" t="n">
-        <v>89</v>
+        <v>94.4</v>
       </c>
       <c r="E32" t="n">
         <v>0.2</v>
       </c>
       <c r="F32" t="n">
-        <v>89</v>
+        <v>-5.4</v>
       </c>
       <c r="G32" t="n">
         <v>1.4</v>
@@ -1270,13 +1277,13 @@
         <v>0.7</v>
       </c>
       <c r="D33" t="n">
-        <v>84.9</v>
+        <v>91.1</v>
       </c>
       <c r="E33" t="n">
         <v>0.1</v>
       </c>
       <c r="F33" t="n">
-        <v>84.9</v>
+        <v>-6.2</v>
       </c>
       <c r="G33" t="n">
         <v>0.7</v>
@@ -1293,13 +1300,13 @@
         <v>1.3</v>
       </c>
       <c r="D34" t="n">
-        <v>79.7</v>
+        <v>86.3</v>
       </c>
       <c r="E34" t="n">
         <v>0.3</v>
       </c>
       <c r="F34" t="n">
-        <v>79.7</v>
+        <v>-6.6</v>
       </c>
       <c r="G34" t="n">
         <v>1.4</v>
@@ -1316,13 +1323,13 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="n">
-        <v>80.9</v>
+        <v>88.1</v>
       </c>
       <c r="E35" t="n">
         <v>0.1</v>
       </c>
       <c r="F35" t="n">
-        <v>80.9</v>
+        <v>-7.3</v>
       </c>
       <c r="G35" t="n">
         <v>0.5</v>
@@ -1339,13 +1346,13 @@
         <v>0.6</v>
       </c>
       <c r="D36" t="n">
-        <v>80.8</v>
+        <v>88.3</v>
       </c>
       <c r="E36" t="n">
         <v>0.1</v>
       </c>
       <c r="F36" t="n">
-        <v>80.8</v>
+        <v>-7.5</v>
       </c>
       <c r="G36" t="n">
         <v>0.6</v>
@@ -1362,13 +1369,13 @@
         <v>1.8</v>
       </c>
       <c r="D37" t="n">
-        <v>90.3</v>
+        <v>95</v>
       </c>
       <c r="E37" t="n">
         <v>0.2</v>
       </c>
       <c r="F37" t="n">
-        <v>90.3</v>
+        <v>-4.7</v>
       </c>
       <c r="G37" t="n">
         <v>1.8</v>
@@ -1385,13 +1392,13 @@
         <v>0.6</v>
       </c>
       <c r="D38" t="n">
-        <v>84.2</v>
+        <v>91.7</v>
       </c>
       <c r="E38" t="n">
         <v>0.1</v>
       </c>
       <c r="F38" t="n">
-        <v>84.2</v>
+        <v>-7.6</v>
       </c>
       <c r="G38" t="n">
         <v>0.6</v>
@@ -1408,13 +1415,13 @@
         <v>0.8</v>
       </c>
       <c r="D39" t="n">
-        <v>85.3</v>
+        <v>88.5</v>
       </c>
       <c r="E39" t="n">
         <v>0.1</v>
       </c>
       <c r="F39" t="n">
-        <v>85.3</v>
+        <v>-3.2</v>
       </c>
       <c r="G39" t="n">
         <v>0.7</v>
@@ -1431,13 +1438,13 @@
         <v>0.8</v>
       </c>
       <c r="D40" t="n">
-        <v>86.4</v>
+        <v>90.4</v>
       </c>
       <c r="E40" t="n">
         <v>0.1</v>
       </c>
       <c r="F40" t="n">
-        <v>86.4</v>
+        <v>-4.1</v>
       </c>
       <c r="G40" t="n">
         <v>0.8</v>
@@ -1454,13 +1461,13 @@
         <v>0.6</v>
       </c>
       <c r="D41" t="n">
-        <v>84.9</v>
+        <v>92</v>
       </c>
       <c r="E41" t="n">
         <v>0.1</v>
       </c>
       <c r="F41" t="n">
-        <v>84.9</v>
+        <v>-7.1</v>
       </c>
       <c r="G41" t="n">
         <v>0.6</v>
@@ -1477,13 +1484,13 @@
         <v>2.1</v>
       </c>
       <c r="D42" t="n">
-        <v>80.2</v>
+        <v>89.8</v>
       </c>
       <c r="E42" t="n">
         <v>0.2</v>
       </c>
       <c r="F42" t="n">
-        <v>80.2</v>
+        <v>-9.6</v>
       </c>
       <c r="G42" t="n">
         <v>2.1</v>
@@ -1500,13 +1507,13 @@
         <v>0.9</v>
       </c>
       <c r="D43" t="n">
-        <v>80.5</v>
+        <v>88.3</v>
       </c>
       <c r="E43" t="n">
         <v>0.1</v>
       </c>
       <c r="F43" t="n">
-        <v>80.5</v>
+        <v>-7.9</v>
       </c>
       <c r="G43" t="n">
         <v>0.9</v>
@@ -1523,13 +1530,13 @@
         <v>1.5</v>
       </c>
       <c r="D44" t="n">
-        <v>91.6</v>
+        <v>93.4</v>
       </c>
       <c r="E44" t="n">
         <v>0.2</v>
       </c>
       <c r="F44" t="n">
-        <v>91.6</v>
+        <v>-1.8</v>
       </c>
       <c r="G44" t="n">
         <v>1.5</v>
@@ -1546,13 +1553,13 @@
         <v>0.8</v>
       </c>
       <c r="D45" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E45" t="n">
         <v>0.1</v>
       </c>
       <c r="F45" t="n">
-        <v>78</v>
+        <v>-10.9</v>
       </c>
       <c r="G45" t="n">
         <v>0.8</v>
@@ -1569,13 +1576,13 @@
         <v>0.4</v>
       </c>
       <c r="D46" t="n">
-        <v>78.4</v>
+        <v>83.9</v>
       </c>
       <c r="E46" t="n">
         <v>0.1</v>
       </c>
       <c r="F46" t="n">
-        <v>78.4</v>
+        <v>-5.5</v>
       </c>
       <c r="G46" t="n">
         <v>0.4</v>
@@ -1592,13 +1599,13 @@
         <v>0.9</v>
       </c>
       <c r="D47" t="n">
-        <v>92.5</v>
+        <v>91.8</v>
       </c>
       <c r="E47" t="n">
         <v>0.1</v>
       </c>
       <c r="F47" t="n">
-        <v>92.5</v>
+        <v>0.7</v>
       </c>
       <c r="G47" t="n">
         <v>0.9</v>
@@ -1615,13 +1622,13 @@
         <v>1.9</v>
       </c>
       <c r="D48" t="n">
-        <v>87.8</v>
+        <v>93.7</v>
       </c>
       <c r="E48" t="n">
         <v>0.3</v>
       </c>
       <c r="F48" t="n">
-        <v>87.8</v>
+        <v>-5.9</v>
       </c>
       <c r="G48" t="n">
         <v>1.9</v>
@@ -1638,13 +1645,13 @@
         <v>0.7</v>
       </c>
       <c r="D49" t="n">
-        <v>83.5</v>
+        <v>90.9</v>
       </c>
       <c r="E49" t="n">
         <v>0.1</v>
       </c>
       <c r="F49" t="n">
-        <v>83.5</v>
+        <v>-7.4</v>
       </c>
       <c r="G49" t="n">
         <v>0.7</v>
@@ -1661,13 +1668,13 @@
         <v>0.6</v>
       </c>
       <c r="D50" t="n">
-        <v>86.8</v>
+        <v>91.2</v>
       </c>
       <c r="E50" t="n">
         <v>0.1</v>
       </c>
       <c r="F50" t="n">
-        <v>86.8</v>
+        <v>-4.4</v>
       </c>
       <c r="G50" t="n">
         <v>0.6</v>
@@ -1684,13 +1691,13 @@
         <v>1.1</v>
       </c>
       <c r="D51" t="n">
-        <v>76.3</v>
+        <v>89</v>
       </c>
       <c r="E51" t="n">
         <v>0.2</v>
       </c>
       <c r="F51" t="n">
-        <v>76.3</v>
+        <v>-12.7</v>
       </c>
       <c r="G51" t="n">
         <v>1.2</v>
@@ -1707,13 +1714,13 @@
         <v>0.7</v>
       </c>
       <c r="D52" t="n">
-        <v>87.6</v>
+        <v>93</v>
       </c>
       <c r="E52" t="n">
         <v>0.1</v>
       </c>
       <c r="F52" t="n">
-        <v>87.6</v>
+        <v>-5.4</v>
       </c>
       <c r="G52" t="n">
         <v>0.7</v>
@@ -1730,13 +1737,13 @@
         <v>1.6</v>
       </c>
       <c r="D53" t="n">
-        <v>90.3</v>
+        <v>94</v>
       </c>
       <c r="E53" t="n">
         <v>0.3</v>
       </c>
       <c r="F53" t="n">
-        <v>90.3</v>
+        <v>-3.6</v>
       </c>
       <c r="G53" t="n">
         <v>1.6</v>
@@ -1790,13 +1797,13 @@
         <v>0.1</v>
       </c>
       <c r="D2" t="n">
-        <v>17.6</v>
+        <v>32.3</v>
       </c>
       <c r="E2" t="n">
         <v>0.1</v>
       </c>
       <c r="F2" t="n">
-        <v>17.6</v>
+        <v>-14.7</v>
       </c>
       <c r="G2" t="n">
         <v>0.1</v>
@@ -1813,13 +1820,13 @@
         <v>3.5</v>
       </c>
       <c r="D3" t="n">
-        <v>33.8</v>
+        <v>59.7</v>
       </c>
       <c r="E3" t="n">
         <v>0.4</v>
       </c>
       <c r="F3" t="n">
-        <v>33.8</v>
+        <v>-25.8</v>
       </c>
       <c r="G3" t="n">
         <v>3.6</v>
@@ -1836,13 +1843,13 @@
         <v>0.7</v>
       </c>
       <c r="D4" t="n">
-        <v>14.5</v>
+        <v>25.6</v>
       </c>
       <c r="E4" t="n">
         <v>0.2</v>
       </c>
       <c r="F4" t="n">
-        <v>14.5</v>
+        <v>-11.2</v>
       </c>
       <c r="G4" t="n">
         <v>0.8</v>
@@ -1859,13 +1866,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>29.6</v>
       </c>
       <c r="E5" t="n">
         <v>0.6</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>-14.6</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -1882,13 +1889,13 @@
         <v>0.7</v>
       </c>
       <c r="D6" t="n">
-        <v>17.4</v>
+        <v>28.8</v>
       </c>
       <c r="E6" t="n">
         <v>0.1</v>
       </c>
       <c r="F6" t="n">
-        <v>17.4</v>
+        <v>-11.3</v>
       </c>
       <c r="G6" t="n">
         <v>0.7</v>
@@ -1905,13 +1912,13 @@
         <v>0.8</v>
       </c>
       <c r="D7" t="n">
-        <v>12.1</v>
+        <v>23.2</v>
       </c>
       <c r="E7" t="n">
         <v>0.2</v>
       </c>
       <c r="F7" t="n">
-        <v>12.1</v>
+        <v>-11</v>
       </c>
       <c r="G7" t="n">
         <v>0.9</v>
@@ -1928,13 +1935,13 @@
         <v>0.4</v>
       </c>
       <c r="D8" t="n">
-        <v>19.5</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
         <v>0.1</v>
       </c>
       <c r="F8" t="n">
-        <v>19.5</v>
+        <v>-13.5</v>
       </c>
       <c r="G8" t="n">
         <v>0.4</v>
@@ -1951,13 +1958,13 @@
         <v>0.9</v>
       </c>
       <c r="D9" t="n">
-        <v>25.7</v>
+        <v>40.2</v>
       </c>
       <c r="E9" t="n">
         <v>0.2</v>
       </c>
       <c r="F9" t="n">
-        <v>25.7</v>
+        <v>-14.5</v>
       </c>
       <c r="G9" t="n">
         <v>0.9</v>
@@ -1974,13 +1981,13 @@
         <v>1.2</v>
       </c>
       <c r="D10" t="n">
-        <v>25.2</v>
+        <v>41</v>
       </c>
       <c r="E10" t="n">
         <v>0.2</v>
       </c>
       <c r="F10" t="n">
-        <v>25.2</v>
+        <v>-15.8</v>
       </c>
       <c r="G10" t="n">
         <v>1.2</v>
@@ -1997,13 +2004,13 @@
         <v>2.1</v>
       </c>
       <c r="D11" t="n">
-        <v>19.4</v>
+        <v>32.7</v>
       </c>
       <c r="E11" t="n">
         <v>0.4</v>
       </c>
       <c r="F11" t="n">
-        <v>19.4</v>
+        <v>-13.3</v>
       </c>
       <c r="G11" t="n">
         <v>2.1</v>
@@ -2020,13 +2027,13 @@
         <v>0.4</v>
       </c>
       <c r="D12" t="n">
-        <v>18.7</v>
+        <v>29</v>
       </c>
       <c r="E12" t="n">
         <v>0.1</v>
       </c>
       <c r="F12" t="n">
-        <v>18.7</v>
+        <v>-10.3</v>
       </c>
       <c r="G12" t="n">
         <v>0.5</v>
@@ -2043,13 +2050,13 @@
         <v>0.6</v>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>31.3</v>
       </c>
       <c r="E13" t="n">
         <v>0.1</v>
       </c>
       <c r="F13" t="n">
-        <v>17</v>
+        <v>-14.3</v>
       </c>
       <c r="G13" t="n">
         <v>0.6</v>
@@ -2066,13 +2073,13 @@
         <v>1.9</v>
       </c>
       <c r="D14" t="n">
-        <v>24</v>
+        <v>33.1</v>
       </c>
       <c r="E14" t="n">
         <v>0.4</v>
       </c>
       <c r="F14" t="n">
-        <v>24</v>
+        <v>-9.1</v>
       </c>
       <c r="G14" t="n">
         <v>1.9</v>
@@ -2089,13 +2096,13 @@
         <v>1.5</v>
       </c>
       <c r="D15" t="n">
-        <v>19.3</v>
+        <v>27</v>
       </c>
       <c r="E15" t="n">
         <v>0.3</v>
       </c>
       <c r="F15" t="n">
-        <v>19.3</v>
+        <v>-7.7</v>
       </c>
       <c r="G15" t="n">
         <v>1.6</v>
@@ -2112,13 +2119,13 @@
         <v>0.6</v>
       </c>
       <c r="D16" t="n">
-        <v>19.5</v>
+        <v>35.8</v>
       </c>
       <c r="E16" t="n">
         <v>0.1</v>
       </c>
       <c r="F16" t="n">
-        <v>19.5</v>
+        <v>-16.3</v>
       </c>
       <c r="G16" t="n">
         <v>0.6</v>
@@ -2135,13 +2142,13 @@
         <v>0.6</v>
       </c>
       <c r="D17" t="n">
-        <v>13.6</v>
+        <v>26.9</v>
       </c>
       <c r="E17" t="n">
         <v>0.2</v>
       </c>
       <c r="F17" t="n">
-        <v>13.6</v>
+        <v>-13.4</v>
       </c>
       <c r="G17" t="n">
         <v>0.6</v>
@@ -2158,13 +2165,13 @@
         <v>1.1</v>
       </c>
       <c r="D18" t="n">
-        <v>15.8</v>
+        <v>30.2</v>
       </c>
       <c r="E18" t="n">
         <v>0.2</v>
       </c>
       <c r="F18" t="n">
-        <v>15.8</v>
+        <v>-14.4</v>
       </c>
       <c r="G18" t="n">
         <v>1.2</v>
@@ -2181,13 +2188,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>19.8</v>
+        <v>33.9</v>
       </c>
       <c r="E19" t="n">
         <v>0.3</v>
       </c>
       <c r="F19" t="n">
-        <v>19.8</v>
+        <v>-14.2</v>
       </c>
       <c r="G19" t="n">
         <v>1.1</v>
@@ -2204,13 +2211,13 @@
         <v>0.6</v>
       </c>
       <c r="D20" t="n">
-        <v>11.7</v>
+        <v>25</v>
       </c>
       <c r="E20" t="n">
         <v>0.2</v>
       </c>
       <c r="F20" t="n">
-        <v>11.7</v>
+        <v>-13.3</v>
       </c>
       <c r="G20" t="n">
         <v>0.6</v>
@@ -2227,13 +2234,13 @@
         <v>0.7</v>
       </c>
       <c r="D21" t="n">
-        <v>12.9</v>
+        <v>24.5</v>
       </c>
       <c r="E21" t="n">
         <v>0.2</v>
       </c>
       <c r="F21" t="n">
-        <v>12.9</v>
+        <v>-11.6</v>
       </c>
       <c r="G21" t="n">
         <v>0.7</v>
@@ -2250,13 +2257,13 @@
         <v>1.5</v>
       </c>
       <c r="D22" t="n">
-        <v>15.2</v>
+        <v>30.8</v>
       </c>
       <c r="E22" t="n">
         <v>0.4</v>
       </c>
       <c r="F22" t="n">
-        <v>15.2</v>
+        <v>-15.6</v>
       </c>
       <c r="G22" t="n">
         <v>1.5</v>
@@ -2273,13 +2280,13 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>24.6</v>
+        <v>40.5</v>
       </c>
       <c r="E23" t="n">
         <v>0.2</v>
       </c>
       <c r="F23" t="n">
-        <v>24.6</v>
+        <v>-15.9</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2296,13 +2303,13 @@
         <v>0.9</v>
       </c>
       <c r="D24" t="n">
-        <v>23.8</v>
+        <v>44.7</v>
       </c>
       <c r="E24" t="n">
         <v>0.1</v>
       </c>
       <c r="F24" t="n">
-        <v>23.8</v>
+        <v>-20.9</v>
       </c>
       <c r="G24" t="n">
         <v>0.9</v>
@@ -2319,13 +2326,13 @@
         <v>0.6</v>
       </c>
       <c r="D25" t="n">
-        <v>14.8</v>
+        <v>29.5</v>
       </c>
       <c r="E25" t="n">
         <v>0.1</v>
       </c>
       <c r="F25" t="n">
-        <v>14.8</v>
+        <v>-14.7</v>
       </c>
       <c r="G25" t="n">
         <v>0.6</v>
@@ -2342,13 +2349,13 @@
         <v>0.9</v>
       </c>
       <c r="D26" t="n">
-        <v>18.7</v>
+        <v>36.8</v>
       </c>
       <c r="E26" t="n">
         <v>0.2</v>
       </c>
       <c r="F26" t="n">
-        <v>18.7</v>
+        <v>-18</v>
       </c>
       <c r="G26" t="n">
         <v>0.9</v>
@@ -2365,13 +2372,13 @@
         <v>0.8</v>
       </c>
       <c r="D27" t="n">
-        <v>12.3</v>
+        <v>22.2</v>
       </c>
       <c r="E27" t="n">
         <v>0.2</v>
       </c>
       <c r="F27" t="n">
-        <v>12.3</v>
+        <v>-9.8</v>
       </c>
       <c r="G27" t="n">
         <v>0.9</v>
@@ -2388,13 +2395,13 @@
         <v>0.7</v>
       </c>
       <c r="D28" t="n">
-        <v>14.7</v>
+        <v>30.2</v>
       </c>
       <c r="E28" t="n">
         <v>0.2</v>
       </c>
       <c r="F28" t="n">
-        <v>14.7</v>
+        <v>-15.5</v>
       </c>
       <c r="G28" t="n">
         <v>0.7</v>
@@ -2411,13 +2418,13 @@
         <v>1.8</v>
       </c>
       <c r="D29" t="n">
-        <v>21.3</v>
+        <v>30.4</v>
       </c>
       <c r="E29" t="n">
         <v>0.4</v>
       </c>
       <c r="F29" t="n">
-        <v>21.3</v>
+        <v>-9.1</v>
       </c>
       <c r="G29" t="n">
         <v>1.9</v>
@@ -2434,13 +2441,13 @@
         <v>1.5</v>
       </c>
       <c r="D30" t="n">
-        <v>16.2</v>
+        <v>33.8</v>
       </c>
       <c r="E30" t="n">
         <v>0.3</v>
       </c>
       <c r="F30" t="n">
-        <v>16.2</v>
+        <v>-17.6</v>
       </c>
       <c r="G30" t="n">
         <v>1.6</v>
@@ -2457,13 +2464,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>14.5</v>
+        <v>23.5</v>
       </c>
       <c r="E31" t="n">
         <v>0.2</v>
       </c>
       <c r="F31" t="n">
-        <v>14.5</v>
+        <v>-9</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2480,13 +2487,13 @@
         <v>1.7</v>
       </c>
       <c r="D32" t="n">
-        <v>23.3</v>
+        <v>37.6</v>
       </c>
       <c r="E32" t="n">
         <v>0.3</v>
       </c>
       <c r="F32" t="n">
-        <v>23.3</v>
+        <v>-14.3</v>
       </c>
       <c r="G32" t="n">
         <v>1.7</v>
@@ -2503,13 +2510,13 @@
         <v>0.9</v>
       </c>
       <c r="D33" t="n">
-        <v>24.3</v>
+        <v>40.6</v>
       </c>
       <c r="E33" t="n">
         <v>0.1</v>
       </c>
       <c r="F33" t="n">
-        <v>24.3</v>
+        <v>-16.3</v>
       </c>
       <c r="G33" t="n">
         <v>0.9</v>
@@ -2526,13 +2533,13 @@
         <v>1.2</v>
       </c>
       <c r="D34" t="n">
-        <v>17.1</v>
+        <v>26.6</v>
       </c>
       <c r="E34" t="n">
         <v>0.3</v>
       </c>
       <c r="F34" t="n">
-        <v>17.1</v>
+        <v>-9.5</v>
       </c>
       <c r="G34" t="n">
         <v>1.3</v>
@@ -2549,13 +2556,13 @@
         <v>0.6</v>
       </c>
       <c r="D35" t="n">
-        <v>22.2</v>
+        <v>37.5</v>
       </c>
       <c r="E35" t="n">
         <v>0.1</v>
       </c>
       <c r="F35" t="n">
-        <v>22.2</v>
+        <v>-15.3</v>
       </c>
       <c r="G35" t="n">
         <v>0.6</v>
@@ -2572,13 +2579,13 @@
         <v>0.6</v>
       </c>
       <c r="D36" t="n">
-        <v>16.7</v>
+        <v>31.1</v>
       </c>
       <c r="E36" t="n">
         <v>0.1</v>
       </c>
       <c r="F36" t="n">
-        <v>16.7</v>
+        <v>-14.4</v>
       </c>
       <c r="G36" t="n">
         <v>0.6</v>
@@ -2595,13 +2602,13 @@
         <v>2.1</v>
       </c>
       <c r="D37" t="n">
-        <v>19.1</v>
+        <v>31.3</v>
       </c>
       <c r="E37" t="n">
         <v>0.5</v>
       </c>
       <c r="F37" t="n">
-        <v>19.1</v>
+        <v>-12.2</v>
       </c>
       <c r="G37" t="n">
         <v>2.2</v>
@@ -2618,13 +2625,13 @@
         <v>0.5</v>
       </c>
       <c r="D38" t="n">
-        <v>13.6</v>
+        <v>29.2</v>
       </c>
       <c r="E38" t="n">
         <v>0.1</v>
       </c>
       <c r="F38" t="n">
-        <v>13.6</v>
+        <v>-15.6</v>
       </c>
       <c r="G38" t="n">
         <v>0.5</v>
@@ -2641,13 +2648,13 @@
         <v>0.8</v>
       </c>
       <c r="D39" t="n">
-        <v>16.4</v>
+        <v>26.1</v>
       </c>
       <c r="E39" t="n">
         <v>0.2</v>
       </c>
       <c r="F39" t="n">
-        <v>16.4</v>
+        <v>-9.7</v>
       </c>
       <c r="G39" t="n">
         <v>0.8</v>
@@ -2664,13 +2671,13 @@
         <v>0.9</v>
       </c>
       <c r="D40" t="n">
-        <v>17.6</v>
+        <v>32.8</v>
       </c>
       <c r="E40" t="n">
         <v>0.2</v>
       </c>
       <c r="F40" t="n">
-        <v>17.6</v>
+        <v>-15.2</v>
       </c>
       <c r="G40" t="n">
         <v>0.9</v>
@@ -2687,13 +2694,13 @@
         <v>0.5</v>
       </c>
       <c r="D41" t="n">
-        <v>15.4</v>
+        <v>32.8</v>
       </c>
       <c r="E41" t="n">
         <v>0.1</v>
       </c>
       <c r="F41" t="n">
-        <v>15.4</v>
+        <v>-17.3</v>
       </c>
       <c r="G41" t="n">
         <v>0.5</v>
@@ -2710,13 +2717,13 @@
         <v>2.1</v>
       </c>
       <c r="D42" t="n">
-        <v>17.5</v>
+        <v>34.7</v>
       </c>
       <c r="E42" t="n">
         <v>0.4</v>
       </c>
       <c r="F42" t="n">
-        <v>17.5</v>
+        <v>-17.2</v>
       </c>
       <c r="G42" t="n">
         <v>2.2</v>
@@ -2733,13 +2740,13 @@
         <v>0.8</v>
       </c>
       <c r="D43" t="n">
-        <v>16.1</v>
+        <v>27.9</v>
       </c>
       <c r="E43" t="n">
         <v>0.2</v>
       </c>
       <c r="F43" t="n">
-        <v>16.1</v>
+        <v>-11.8</v>
       </c>
       <c r="G43" t="n">
         <v>0.8</v>
@@ -2756,13 +2763,13 @@
         <v>1.8</v>
       </c>
       <c r="D44" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="E44" t="n">
         <v>0.5</v>
       </c>
       <c r="F44" t="n">
-        <v>16.5</v>
+        <v>-13.5</v>
       </c>
       <c r="G44" t="n">
         <v>1.9</v>
@@ -2779,13 +2786,13 @@
         <v>0.6</v>
       </c>
       <c r="D45" t="n">
-        <v>13.3</v>
+        <v>27.7</v>
       </c>
       <c r="E45" t="n">
         <v>0.2</v>
       </c>
       <c r="F45" t="n">
-        <v>13.3</v>
+        <v>-14.5</v>
       </c>
       <c r="G45" t="n">
         <v>0.6</v>
@@ -2802,13 +2809,13 @@
         <v>0.4</v>
       </c>
       <c r="D46" t="n">
-        <v>17.5</v>
+        <v>29.5</v>
       </c>
       <c r="E46" t="n">
         <v>0.1</v>
       </c>
       <c r="F46" t="n">
-        <v>17.5</v>
+        <v>-12</v>
       </c>
       <c r="G46" t="n">
         <v>0.4</v>
@@ -2825,13 +2832,13 @@
         <v>1.2</v>
       </c>
       <c r="D47" t="n">
-        <v>20.3</v>
+        <v>32.2</v>
       </c>
       <c r="E47" t="n">
         <v>0.2</v>
       </c>
       <c r="F47" t="n">
-        <v>20.3</v>
+        <v>-11.9</v>
       </c>
       <c r="G47" t="n">
         <v>1.2</v>
@@ -2848,13 +2855,13 @@
         <v>2.1</v>
       </c>
       <c r="D48" t="n">
-        <v>20</v>
+        <v>37.6</v>
       </c>
       <c r="E48" t="n">
         <v>0.7</v>
       </c>
       <c r="F48" t="n">
-        <v>20</v>
+        <v>-17.6</v>
       </c>
       <c r="G48" t="n">
         <v>2.2</v>
@@ -2871,13 +2878,13 @@
         <v>0.7</v>
       </c>
       <c r="D49" t="n">
-        <v>23.7</v>
+        <v>39.5</v>
       </c>
       <c r="E49" t="n">
         <v>0.2</v>
       </c>
       <c r="F49" t="n">
-        <v>23.7</v>
+        <v>-15.8</v>
       </c>
       <c r="G49" t="n">
         <v>0.7</v>
@@ -2894,13 +2901,13 @@
         <v>0.5</v>
       </c>
       <c r="D50" t="n">
-        <v>19.6</v>
+        <v>34.8</v>
       </c>
       <c r="E50" t="n">
         <v>0.1</v>
       </c>
       <c r="F50" t="n">
-        <v>19.6</v>
+        <v>-15.2</v>
       </c>
       <c r="G50" t="n">
         <v>0.5</v>
@@ -2917,13 +2924,13 @@
         <v>0.7</v>
       </c>
       <c r="D51" t="n">
-        <v>8.9</v>
+        <v>22</v>
       </c>
       <c r="E51" t="n">
         <v>0.3</v>
       </c>
       <c r="F51" t="n">
-        <v>8.9</v>
+        <v>-13.1</v>
       </c>
       <c r="G51" t="n">
         <v>0.8</v>
@@ -2940,13 +2947,13 @@
         <v>0.7</v>
       </c>
       <c r="D52" t="n">
-        <v>16.4</v>
+        <v>31.1</v>
       </c>
       <c r="E52" t="n">
         <v>0.2</v>
       </c>
       <c r="F52" t="n">
-        <v>16.4</v>
+        <v>-14.7</v>
       </c>
       <c r="G52" t="n">
         <v>0.7</v>
@@ -2963,13 +2970,13 @@
         <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>16.5</v>
+        <v>27.3</v>
       </c>
       <c r="E53" t="n">
         <v>0.6</v>
       </c>
       <c r="F53" t="n">
-        <v>16.5</v>
+        <v>-10.8</v>
       </c>
       <c r="G53" t="n">
         <v>1.9</v>
@@ -3023,13 +3030,13 @@
         <v>0.1</v>
       </c>
       <c r="D2" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.2</v>
+        <v>0.4</v>
       </c>
       <c r="G2" t="n">
         <v>0.1</v>
@@ -3046,13 +3053,13 @@
         <v>1.3</v>
       </c>
       <c r="D3" t="n">
-        <v>3.3</v>
+        <v>6.1</v>
       </c>
       <c r="E3" t="n">
         <v>0.2</v>
       </c>
       <c r="F3" t="n">
-        <v>3.3</v>
+        <v>-2.8</v>
       </c>
       <c r="G3" t="n">
         <v>1.3</v>
@@ -3069,13 +3076,13 @@
         <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="E4" t="n">
         <v>0.1</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="G4" t="n">
         <v>0.5</v>
@@ -3092,13 +3099,13 @@
         <v>1.3</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>5.1</v>
       </c>
       <c r="E5" t="n">
         <v>0.2</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="G5" t="n">
         <v>1.3</v>
@@ -3121,7 +3128,7 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="n">
-        <v>4.9</v>
+        <v>0.1</v>
       </c>
       <c r="G6" t="n">
         <v>0.4</v>
@@ -3144,7 +3151,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0.5</v>
@@ -3161,13 +3168,13 @@
         <v>0.2</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="G8" t="n">
         <v>0.2</v>
@@ -3184,13 +3191,13 @@
         <v>0.5</v>
       </c>
       <c r="D9" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="E9" t="n">
         <v>0.1</v>
       </c>
       <c r="F9" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="G9" t="n">
         <v>0.5</v>
@@ -3207,13 +3214,13 @@
         <v>0.7</v>
       </c>
       <c r="D10" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="E10" t="n">
         <v>0.1</v>
       </c>
       <c r="F10" t="n">
-        <v>6.1</v>
+        <v>0.4</v>
       </c>
       <c r="G10" t="n">
         <v>0.7</v>
@@ -3230,13 +3237,13 @@
         <v>1.4</v>
       </c>
       <c r="D11" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="E11" t="n">
         <v>0.2</v>
       </c>
       <c r="F11" t="n">
-        <v>5.2</v>
+        <v>0.6</v>
       </c>
       <c r="G11" t="n">
         <v>1.4</v>
@@ -3253,13 +3260,13 @@
         <v>0.3</v>
       </c>
       <c r="D12" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>5.7</v>
+        <v>0.2</v>
       </c>
       <c r="G12" t="n">
         <v>0.3</v>
@@ -3276,13 +3283,13 @@
         <v>0.4</v>
       </c>
       <c r="D13" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="E13" t="n">
         <v>0.1</v>
       </c>
       <c r="F13" t="n">
-        <v>5.4</v>
+        <v>0.2</v>
       </c>
       <c r="G13" t="n">
         <v>0.4</v>
@@ -3299,13 +3306,13 @@
         <v>0.7</v>
       </c>
       <c r="D14" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="E14" t="n">
         <v>0.1</v>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>-0.4</v>
       </c>
       <c r="G14" t="n">
         <v>0.7</v>
@@ -3322,13 +3329,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="E15" t="n">
         <v>0.1</v>
       </c>
       <c r="F15" t="n">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -3345,13 +3352,13 @@
         <v>0.4</v>
       </c>
       <c r="D16" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="E16" t="n">
         <v>0.1</v>
       </c>
       <c r="F16" t="n">
-        <v>6.2</v>
+        <v>0.7</v>
       </c>
       <c r="G16" t="n">
         <v>0.4</v>
@@ -3368,13 +3375,13 @@
         <v>0.4</v>
       </c>
       <c r="D17" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="E17" t="n">
         <v>0.1</v>
       </c>
       <c r="F17" t="n">
-        <v>4.6</v>
+        <v>0.1</v>
       </c>
       <c r="G17" t="n">
         <v>0.4</v>
@@ -3391,13 +3398,13 @@
         <v>0.6</v>
       </c>
       <c r="D18" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="E18" t="n">
         <v>0.1</v>
       </c>
       <c r="F18" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="G18" t="n">
         <v>0.6</v>
@@ -3414,13 +3421,13 @@
         <v>0.6</v>
       </c>
       <c r="D19" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E19" t="n">
         <v>0.1</v>
       </c>
       <c r="F19" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="G19" t="n">
         <v>0.6</v>
@@ -3437,13 +3444,13 @@
         <v>0.4</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E20" t="n">
         <v>0.1</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>-0.5</v>
       </c>
       <c r="G20" t="n">
         <v>0.4</v>
@@ -3460,13 +3467,13 @@
         <v>0.5</v>
       </c>
       <c r="D21" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="E21" t="n">
         <v>0.1</v>
       </c>
       <c r="F21" t="n">
-        <v>4.7</v>
+        <v>0.2</v>
       </c>
       <c r="G21" t="n">
         <v>0.5</v>
@@ -3483,13 +3490,13 @@
         <v>0.8</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="E22" t="n">
         <v>0.2</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="G22" t="n">
         <v>0.8</v>
@@ -3506,13 +3513,13 @@
         <v>0.6</v>
       </c>
       <c r="D23" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="E23" t="n">
         <v>0.1</v>
       </c>
       <c r="F23" t="n">
-        <v>5.8</v>
+        <v>1.3</v>
       </c>
       <c r="G23" t="n">
         <v>0.7</v>
@@ -3529,13 +3536,13 @@
         <v>0.5</v>
       </c>
       <c r="D24" t="n">
-        <v>6.3</v>
+        <v>4.7</v>
       </c>
       <c r="E24" t="n">
         <v>0.1</v>
       </c>
       <c r="F24" t="n">
-        <v>6.3</v>
+        <v>1.7</v>
       </c>
       <c r="G24" t="n">
         <v>0.5</v>
@@ -3552,13 +3559,13 @@
         <v>0.3</v>
       </c>
       <c r="D25" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="E25" t="n">
         <v>0.1</v>
       </c>
       <c r="F25" t="n">
-        <v>5.5</v>
+        <v>0.1</v>
       </c>
       <c r="G25" t="n">
         <v>0.3</v>
@@ -3575,13 +3582,13 @@
         <v>0.6</v>
       </c>
       <c r="D26" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="E26" t="n">
         <v>0.1</v>
       </c>
       <c r="F26" t="n">
-        <v>5.2</v>
+        <v>1.8</v>
       </c>
       <c r="G26" t="n">
         <v>0.6</v>
@@ -3598,13 +3605,13 @@
         <v>0.6</v>
       </c>
       <c r="D27" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="E27" t="n">
         <v>0.1</v>
       </c>
       <c r="F27" t="n">
-        <v>4.6</v>
+        <v>-1</v>
       </c>
       <c r="G27" t="n">
         <v>0.6</v>
@@ -3621,13 +3628,13 @@
         <v>0.4</v>
       </c>
       <c r="D28" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="E28" t="n">
         <v>0.1</v>
       </c>
       <c r="F28" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="G28" t="n">
         <v>0.4</v>
@@ -3644,13 +3651,13 @@
         <v>0.9</v>
       </c>
       <c r="D29" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="E29" t="n">
         <v>0.2</v>
       </c>
       <c r="F29" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="G29" t="n">
         <v>0.8</v>
@@ -3667,13 +3674,13 @@
         <v>0.6</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="E30" t="n">
         <v>0.1</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="G30" t="n">
         <v>0.6</v>
@@ -3690,13 +3697,13 @@
         <v>0.6</v>
       </c>
       <c r="D31" t="n">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="E31" t="n">
         <v>0.1</v>
       </c>
       <c r="F31" t="n">
-        <v>5.4</v>
+        <v>-1</v>
       </c>
       <c r="G31" t="n">
         <v>0.6</v>
@@ -3713,13 +3720,13 @@
         <v>0.9</v>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="E32" t="n">
         <v>0.1</v>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="G32" t="n">
         <v>0.9</v>
@@ -3736,13 +3743,13 @@
         <v>0.5</v>
       </c>
       <c r="D33" t="n">
-        <v>7.4</v>
+        <v>5.4</v>
       </c>
       <c r="E33" t="n">
         <v>0.1</v>
       </c>
       <c r="F33" t="n">
-        <v>7.4</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
         <v>0.5</v>
@@ -3759,13 +3766,13 @@
         <v>0.7</v>
       </c>
       <c r="D34" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
         <v>0.2</v>
       </c>
       <c r="F34" t="n">
-        <v>3.9</v>
+        <v>-1.1</v>
       </c>
       <c r="G34" t="n">
         <v>0.7</v>
@@ -3782,13 +3789,13 @@
         <v>0.3</v>
       </c>
       <c r="D35" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5.2</v>
+        <v>0.3</v>
       </c>
       <c r="G35" t="n">
         <v>0.3</v>
@@ -3805,13 +3812,13 @@
         <v>0.3</v>
       </c>
       <c r="D36" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="E36" t="n">
         <v>0.1</v>
       </c>
       <c r="F36" t="n">
-        <v>5.8</v>
+        <v>0.6</v>
       </c>
       <c r="G36" t="n">
         <v>0.3</v>
@@ -3828,13 +3835,13 @@
         <v>0.9</v>
       </c>
       <c r="D37" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="E37" t="n">
         <v>0.2</v>
       </c>
       <c r="F37" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="G37" t="n">
         <v>0.9</v>
@@ -3851,13 +3858,13 @@
         <v>0.3</v>
       </c>
       <c r="D38" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="E38" t="n">
         <v>0.1</v>
       </c>
       <c r="F38" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="G38" t="n">
         <v>0.3</v>
@@ -3874,13 +3881,13 @@
         <v>0.3</v>
       </c>
       <c r="D39" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="E39" t="n">
         <v>0.1</v>
       </c>
       <c r="F39" t="n">
-        <v>3.4</v>
+        <v>-0.2</v>
       </c>
       <c r="G39" t="n">
         <v>0.3</v>
@@ -3897,13 +3904,13 @@
         <v>0.5</v>
       </c>
       <c r="D40" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="E40" t="n">
         <v>0.1</v>
       </c>
       <c r="F40" t="n">
-        <v>5.3</v>
+        <v>0.1</v>
       </c>
       <c r="G40" t="n">
         <v>0.5</v>
@@ -3920,13 +3927,13 @@
         <v>0.4</v>
       </c>
       <c r="D41" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="E41" t="n">
         <v>0.1</v>
       </c>
       <c r="F41" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="G41" t="n">
         <v>0.3</v>
@@ -3943,13 +3950,13 @@
         <v>1.1</v>
       </c>
       <c r="D42" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="E42" t="n">
         <v>0.2</v>
       </c>
       <c r="F42" t="n">
-        <v>4.9</v>
+        <v>-0.2</v>
       </c>
       <c r="G42" t="n">
         <v>1.2</v>
@@ -3966,13 +3973,13 @@
         <v>0.4</v>
       </c>
       <c r="D43" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="E43" t="n">
         <v>0.1</v>
       </c>
       <c r="F43" t="n">
-        <v>5.3</v>
+        <v>0.2</v>
       </c>
       <c r="G43" t="n">
         <v>0.4</v>
@@ -3989,13 +3996,13 @@
         <v>1.2</v>
       </c>
       <c r="D44" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="E44" t="n">
         <v>0.2</v>
       </c>
       <c r="F44" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="G44" t="n">
         <v>1.2</v>
@@ -4018,7 +4025,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0.4</v>
@@ -4035,13 +4042,13 @@
         <v>0.2</v>
       </c>
       <c r="D46" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="G46" t="n">
         <v>0.2</v>
@@ -4058,13 +4065,13 @@
         <v>0.6</v>
       </c>
       <c r="D47" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="E47" t="n">
         <v>0.1</v>
       </c>
       <c r="F47" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="G47" t="n">
         <v>0.7</v>
@@ -4081,13 +4088,13 @@
         <v>0.7</v>
       </c>
       <c r="D48" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="E48" t="n">
         <v>0.2</v>
       </c>
       <c r="F48" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="G48" t="n">
         <v>0.8</v>
@@ -4104,13 +4111,13 @@
         <v>0.4</v>
       </c>
       <c r="D49" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="E49" t="n">
         <v>0.1</v>
       </c>
       <c r="F49" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="G49" t="n">
         <v>0.4</v>
@@ -4127,13 +4134,13 @@
         <v>0.4</v>
       </c>
       <c r="D50" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="E50" t="n">
         <v>0.1</v>
       </c>
       <c r="F50" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>0.4</v>
@@ -4150,13 +4157,13 @@
         <v>0.5</v>
       </c>
       <c r="D51" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="E51" t="n">
         <v>0.1</v>
       </c>
       <c r="F51" t="n">
-        <v>3.9</v>
+        <v>-0.3</v>
       </c>
       <c r="G51" t="n">
         <v>0.5</v>
@@ -4173,13 +4180,13 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="E52" t="n">
         <v>0.1</v>
       </c>
       <c r="F52" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="G52" t="n">
         <v>0.5</v>
@@ -4196,13 +4203,13 @@
         <v>1.8</v>
       </c>
       <c r="D53" t="n">
-        <v>7.5</v>
+        <v>3.7</v>
       </c>
       <c r="E53" t="n">
         <v>0.2</v>
       </c>
       <c r="F53" t="n">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="G53" t="n">
         <v>1.8</v>
@@ -4256,13 +4263,13 @@
         <v>0.1</v>
       </c>
       <c r="D2" t="n">
-        <v>51.2</v>
+        <v>74.1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>51.2</v>
+        <v>-22.9</v>
       </c>
       <c r="G2" t="n">
         <v>0.1</v>
@@ -4279,13 +4286,13 @@
         <v>4.3</v>
       </c>
       <c r="D3" t="n">
-        <v>50.9</v>
+        <v>77.2</v>
       </c>
       <c r="E3" t="n">
         <v>0.4</v>
       </c>
       <c r="F3" t="n">
-        <v>50.9</v>
+        <v>-26.4</v>
       </c>
       <c r="G3" t="n">
         <v>4.3</v>
@@ -4302,13 +4309,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>46.1</v>
+        <v>68.2</v>
       </c>
       <c r="E4" t="n">
         <v>0.2</v>
       </c>
       <c r="F4" t="n">
-        <v>46.1</v>
+        <v>-22.2</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -4325,13 +4332,13 @@
         <v>2.5</v>
       </c>
       <c r="D5" t="n">
-        <v>56.1</v>
+        <v>75.5</v>
       </c>
       <c r="E5" t="n">
         <v>0.5</v>
       </c>
       <c r="F5" t="n">
-        <v>56.1</v>
+        <v>-19.4</v>
       </c>
       <c r="G5" t="n">
         <v>2.6</v>
@@ -4348,13 +4355,13 @@
         <v>0.9</v>
       </c>
       <c r="D6" t="n">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E6" t="n">
         <v>0.2</v>
       </c>
       <c r="F6" t="n">
-        <v>49</v>
+        <v>-22.1</v>
       </c>
       <c r="G6" t="n">
         <v>0.9</v>
@@ -4371,13 +4378,13 @@
         <v>1.2</v>
       </c>
       <c r="D7" t="n">
-        <v>46.3</v>
+        <v>70.1</v>
       </c>
       <c r="E7" t="n">
         <v>0.2</v>
       </c>
       <c r="F7" t="n">
-        <v>46.3</v>
+        <v>-23.7</v>
       </c>
       <c r="G7" t="n">
         <v>1.2</v>
@@ -4394,13 +4401,13 @@
         <v>0.5</v>
       </c>
       <c r="D8" t="n">
-        <v>48.7</v>
+        <v>72.6</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>48.7</v>
+        <v>-23.9</v>
       </c>
       <c r="G8" t="n">
         <v>0.5</v>
@@ -4417,13 +4424,13 @@
         <v>0.9</v>
       </c>
       <c r="D9" t="n">
-        <v>57.9</v>
+        <v>77.8</v>
       </c>
       <c r="E9" t="n">
         <v>0.1</v>
       </c>
       <c r="F9" t="n">
-        <v>57.9</v>
+        <v>-19.9</v>
       </c>
       <c r="G9" t="n">
         <v>0.9</v>
@@ -4440,13 +4447,13 @@
         <v>1.4</v>
       </c>
       <c r="D10" t="n">
-        <v>59.9</v>
+        <v>77.4</v>
       </c>
       <c r="E10" t="n">
         <v>0.2</v>
       </c>
       <c r="F10" t="n">
-        <v>59.9</v>
+        <v>-17.5</v>
       </c>
       <c r="G10" t="n">
         <v>1.3</v>
@@ -4463,13 +4470,13 @@
         <v>2.9</v>
       </c>
       <c r="D11" t="n">
-        <v>53.4</v>
+        <v>75.2</v>
       </c>
       <c r="E11" t="n">
         <v>0.4</v>
       </c>
       <c r="F11" t="n">
-        <v>53.4</v>
+        <v>-21.8</v>
       </c>
       <c r="G11" t="n">
         <v>2.9</v>
@@ -4486,13 +4493,13 @@
         <v>0.7</v>
       </c>
       <c r="D12" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E12" t="n">
         <v>0.1</v>
       </c>
       <c r="F12" t="n">
-        <v>47</v>
+        <v>-25</v>
       </c>
       <c r="G12" t="n">
         <v>0.7</v>
@@ -4509,13 +4516,13 @@
         <v>0.7</v>
       </c>
       <c r="D13" t="n">
-        <v>49.1</v>
+        <v>72.1</v>
       </c>
       <c r="E13" t="n">
         <v>0.1</v>
       </c>
       <c r="F13" t="n">
-        <v>49.1</v>
+        <v>-23</v>
       </c>
       <c r="G13" t="n">
         <v>0.7</v>
@@ -4532,13 +4539,13 @@
         <v>1.9</v>
       </c>
       <c r="D14" t="n">
-        <v>59.4</v>
+        <v>77.3</v>
       </c>
       <c r="E14" t="n">
         <v>0.2</v>
       </c>
       <c r="F14" t="n">
-        <v>59.4</v>
+        <v>-18</v>
       </c>
       <c r="G14" t="n">
         <v>1.9</v>
@@ -4555,13 +4562,13 @@
         <v>1.9</v>
       </c>
       <c r="D15" t="n">
-        <v>56.8</v>
+        <v>74</v>
       </c>
       <c r="E15" t="n">
         <v>0.3</v>
       </c>
       <c r="F15" t="n">
-        <v>56.8</v>
+        <v>-17.2</v>
       </c>
       <c r="G15" t="n">
         <v>1.8</v>
@@ -4578,13 +4585,13 @@
         <v>0.8</v>
       </c>
       <c r="D16" t="n">
-        <v>52.5</v>
+        <v>75.4</v>
       </c>
       <c r="E16" t="n">
         <v>0.1</v>
       </c>
       <c r="F16" t="n">
-        <v>52.5</v>
+        <v>-22.9</v>
       </c>
       <c r="G16" t="n">
         <v>0.8</v>
@@ -4601,13 +4608,13 @@
         <v>0.9</v>
       </c>
       <c r="D17" t="n">
-        <v>53.6</v>
+        <v>74.9</v>
       </c>
       <c r="E17" t="n">
         <v>0.1</v>
       </c>
       <c r="F17" t="n">
-        <v>53.6</v>
+        <v>-21.3</v>
       </c>
       <c r="G17" t="n">
         <v>0.9</v>
@@ -4624,13 +4631,13 @@
         <v>1.4</v>
       </c>
       <c r="D18" t="n">
-        <v>62.3</v>
+        <v>80.8</v>
       </c>
       <c r="E18" t="n">
         <v>0.2</v>
       </c>
       <c r="F18" t="n">
-        <v>62.3</v>
+        <v>-18.5</v>
       </c>
       <c r="G18" t="n">
         <v>1.4</v>
@@ -4647,13 +4654,13 @@
         <v>1.7</v>
       </c>
       <c r="D19" t="n">
-        <v>58.8</v>
+        <v>78.4</v>
       </c>
       <c r="E19" t="n">
         <v>0.2</v>
       </c>
       <c r="F19" t="n">
-        <v>58.8</v>
+        <v>-19.6</v>
       </c>
       <c r="G19" t="n">
         <v>1.7</v>
@@ -4670,13 +4677,13 @@
         <v>0.9</v>
       </c>
       <c r="D20" t="n">
-        <v>41.9</v>
+        <v>69.1</v>
       </c>
       <c r="E20" t="n">
         <v>0.2</v>
       </c>
       <c r="F20" t="n">
-        <v>41.9</v>
+        <v>-27.3</v>
       </c>
       <c r="G20" t="n">
         <v>0.9</v>
@@ -4693,13 +4700,13 @@
         <v>1.1</v>
       </c>
       <c r="D21" t="n">
-        <v>48.6</v>
+        <v>70.7</v>
       </c>
       <c r="E21" t="n">
         <v>0.2</v>
       </c>
       <c r="F21" t="n">
-        <v>48.6</v>
+        <v>-22.1</v>
       </c>
       <c r="G21" t="n">
         <v>1.1</v>
@@ -4716,13 +4723,13 @@
         <v>1.8</v>
       </c>
       <c r="D22" t="n">
-        <v>51.2</v>
+        <v>74.9</v>
       </c>
       <c r="E22" t="n">
         <v>0.4</v>
       </c>
       <c r="F22" t="n">
-        <v>51.2</v>
+        <v>-23.7</v>
       </c>
       <c r="G22" t="n">
         <v>1.9</v>
@@ -4739,13 +4746,13 @@
         <v>1.3</v>
       </c>
       <c r="D23" t="n">
-        <v>58.5</v>
+        <v>78.9</v>
       </c>
       <c r="E23" t="n">
         <v>0.1</v>
       </c>
       <c r="F23" t="n">
-        <v>58.5</v>
+        <v>-20.4</v>
       </c>
       <c r="G23" t="n">
         <v>1.3</v>
@@ -4762,13 +4769,13 @@
         <v>1.2</v>
       </c>
       <c r="D24" t="n">
-        <v>51.9</v>
+        <v>78.1</v>
       </c>
       <c r="E24" t="n">
         <v>0.1</v>
       </c>
       <c r="F24" t="n">
-        <v>51.9</v>
+        <v>-26.2</v>
       </c>
       <c r="G24" t="n">
         <v>1.2</v>
@@ -4785,13 +4792,13 @@
         <v>0.7</v>
       </c>
       <c r="D25" t="n">
-        <v>48.3</v>
+        <v>71</v>
       </c>
       <c r="E25" t="n">
         <v>0.1</v>
       </c>
       <c r="F25" t="n">
-        <v>48.3</v>
+        <v>-22.7</v>
       </c>
       <c r="G25" t="n">
         <v>0.7</v>
@@ -4808,13 +4815,13 @@
         <v>1.2</v>
       </c>
       <c r="D26" t="n">
-        <v>62.7</v>
+        <v>81.6</v>
       </c>
       <c r="E26" t="n">
         <v>0.1</v>
       </c>
       <c r="F26" t="n">
-        <v>62.7</v>
+        <v>-19</v>
       </c>
       <c r="G26" t="n">
         <v>1.2</v>
@@ -4831,13 +4838,13 @@
         <v>1.2</v>
       </c>
       <c r="D27" t="n">
-        <v>43.9</v>
+        <v>68</v>
       </c>
       <c r="E27" t="n">
         <v>0.2</v>
       </c>
       <c r="F27" t="n">
-        <v>43.9</v>
+        <v>-24.1</v>
       </c>
       <c r="G27" t="n">
         <v>1.2</v>
@@ -4854,13 +4861,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>48.8</v>
+        <v>74.6</v>
       </c>
       <c r="E28" t="n">
         <v>0.1</v>
       </c>
       <c r="F28" t="n">
-        <v>48.8</v>
+        <v>-25.8</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -4877,13 +4884,13 @@
         <v>2.4</v>
       </c>
       <c r="D29" t="n">
-        <v>56.5</v>
+        <v>75.2</v>
       </c>
       <c r="E29" t="n">
         <v>0.3</v>
       </c>
       <c r="F29" t="n">
-        <v>56.5</v>
+        <v>-18.7</v>
       </c>
       <c r="G29" t="n">
         <v>2.4</v>
@@ -4900,13 +4907,13 @@
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>65.2</v>
+        <v>82.4</v>
       </c>
       <c r="E30" t="n">
         <v>0.2</v>
       </c>
       <c r="F30" t="n">
-        <v>65.2</v>
+        <v>-17.2</v>
       </c>
       <c r="G30" t="n">
         <v>2.1</v>
@@ -4923,13 +4930,13 @@
         <v>1.3</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2</v>
+        <v>72.4</v>
       </c>
       <c r="E31" t="n">
         <v>0.2</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2</v>
+        <v>-17.2</v>
       </c>
       <c r="G31" t="n">
         <v>1.3</v>
@@ -4946,13 +4953,13 @@
         <v>2.3</v>
       </c>
       <c r="D32" t="n">
-        <v>59.6</v>
+        <v>80.4</v>
       </c>
       <c r="E32" t="n">
         <v>0.2</v>
       </c>
       <c r="F32" t="n">
-        <v>59.6</v>
+        <v>-20.8</v>
       </c>
       <c r="G32" t="n">
         <v>2.2</v>
@@ -4969,13 +4976,13 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>53.2</v>
+        <v>76.3</v>
       </c>
       <c r="E33" t="n">
         <v>0.1</v>
       </c>
       <c r="F33" t="n">
-        <v>53.2</v>
+        <v>-23</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -4992,13 +4999,13 @@
         <v>1.5</v>
       </c>
       <c r="D34" t="n">
-        <v>43.4</v>
+        <v>69.1</v>
       </c>
       <c r="E34" t="n">
         <v>0.2</v>
       </c>
       <c r="F34" t="n">
-        <v>43.4</v>
+        <v>-25.6</v>
       </c>
       <c r="G34" t="n">
         <v>1.5</v>
@@ -5015,13 +5022,13 @@
         <v>0.6</v>
       </c>
       <c r="D35" t="n">
-        <v>50.3</v>
+        <v>74.5</v>
       </c>
       <c r="E35" t="n">
         <v>0.1</v>
       </c>
       <c r="F35" t="n">
-        <v>50.3</v>
+        <v>-24.1</v>
       </c>
       <c r="G35" t="n">
         <v>0.6</v>
@@ -5038,13 +5045,13 @@
         <v>0.7</v>
       </c>
       <c r="D36" t="n">
-        <v>47.8</v>
+        <v>72.8</v>
       </c>
       <c r="E36" t="n">
         <v>0.1</v>
       </c>
       <c r="F36" t="n">
-        <v>47.8</v>
+        <v>-24.9</v>
       </c>
       <c r="G36" t="n">
         <v>0.8</v>
@@ -5061,13 +5068,13 @@
         <v>3.6</v>
       </c>
       <c r="D37" t="n">
-        <v>66.5</v>
+        <v>82.8</v>
       </c>
       <c r="E37" t="n">
         <v>0.3</v>
       </c>
       <c r="F37" t="n">
-        <v>66.5</v>
+        <v>-16.3</v>
       </c>
       <c r="G37" t="n">
         <v>3.6</v>
@@ -5084,13 +5091,13 @@
         <v>0.6</v>
       </c>
       <c r="D38" t="n">
-        <v>50.4</v>
+        <v>74.2</v>
       </c>
       <c r="E38" t="n">
         <v>0.1</v>
       </c>
       <c r="F38" t="n">
-        <v>50.4</v>
+        <v>-23.8</v>
       </c>
       <c r="G38" t="n">
         <v>0.6</v>
@@ -5107,13 +5114,13 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>52.1</v>
+        <v>72.9</v>
       </c>
       <c r="E39" t="n">
         <v>0.2</v>
       </c>
       <c r="F39" t="n">
-        <v>52.1</v>
+        <v>-20.7</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -5130,13 +5137,13 @@
         <v>1.1</v>
       </c>
       <c r="D40" t="n">
-        <v>50.4</v>
+        <v>72.6</v>
       </c>
       <c r="E40" t="n">
         <v>0.2</v>
       </c>
       <c r="F40" t="n">
-        <v>50.4</v>
+        <v>-22.3</v>
       </c>
       <c r="G40" t="n">
         <v>1.1</v>
@@ -5153,13 +5160,13 @@
         <v>0.8</v>
       </c>
       <c r="D41" t="n">
-        <v>52.7</v>
+        <v>74.8</v>
       </c>
       <c r="E41" t="n">
         <v>0.1</v>
       </c>
       <c r="F41" t="n">
-        <v>52.7</v>
+        <v>-22.1</v>
       </c>
       <c r="G41" t="n">
         <v>0.8</v>
@@ -5176,13 +5183,13 @@
         <v>2.7</v>
       </c>
       <c r="D42" t="n">
-        <v>53.3</v>
+        <v>76.3</v>
       </c>
       <c r="E42" t="n">
         <v>0.3</v>
       </c>
       <c r="F42" t="n">
-        <v>53.3</v>
+        <v>-23</v>
       </c>
       <c r="G42" t="n">
         <v>2.7</v>
@@ -5199,13 +5206,13 @@
         <v>1.1</v>
       </c>
       <c r="D43" t="n">
-        <v>47.2</v>
+        <v>71.4</v>
       </c>
       <c r="E43" t="n">
         <v>0.2</v>
       </c>
       <c r="F43" t="n">
-        <v>47.2</v>
+        <v>-24.3</v>
       </c>
       <c r="G43" t="n">
         <v>1.1</v>
@@ -5222,13 +5229,13 @@
         <v>2.8</v>
       </c>
       <c r="D44" t="n">
-        <v>67.5</v>
+        <v>81.6</v>
       </c>
       <c r="E44" t="n">
         <v>0.4</v>
       </c>
       <c r="F44" t="n">
-        <v>67.5</v>
+        <v>-14.1</v>
       </c>
       <c r="G44" t="n">
         <v>2.7</v>
@@ -5245,13 +5252,13 @@
         <v>0.9</v>
       </c>
       <c r="D45" t="n">
-        <v>45.2</v>
+        <v>71.3</v>
       </c>
       <c r="E45" t="n">
         <v>0.1</v>
       </c>
       <c r="F45" t="n">
-        <v>45.2</v>
+        <v>-26.1</v>
       </c>
       <c r="G45" t="n">
         <v>0.9</v>
@@ -5268,13 +5275,13 @@
         <v>0.6</v>
       </c>
       <c r="D46" t="n">
-        <v>53.2</v>
+        <v>74.6</v>
       </c>
       <c r="E46" t="n">
         <v>0.1</v>
       </c>
       <c r="F46" t="n">
-        <v>53.2</v>
+        <v>-21.5</v>
       </c>
       <c r="G46" t="n">
         <v>0.6</v>
@@ -5291,13 +5298,13 @@
         <v>1.6</v>
       </c>
       <c r="D47" t="n">
-        <v>59.1</v>
+        <v>76</v>
       </c>
       <c r="E47" t="n">
         <v>0.2</v>
       </c>
       <c r="F47" t="n">
-        <v>59.1</v>
+        <v>-17</v>
       </c>
       <c r="G47" t="n">
         <v>1.6</v>
@@ -5314,13 +5321,13 @@
         <v>2.5</v>
       </c>
       <c r="D48" t="n">
-        <v>54.3</v>
+        <v>79.4</v>
       </c>
       <c r="E48" t="n">
         <v>0.5</v>
       </c>
       <c r="F48" t="n">
-        <v>54.3</v>
+        <v>-25.2</v>
       </c>
       <c r="G48" t="n">
         <v>2.5</v>
@@ -5337,13 +5344,13 @@
         <v>0.9</v>
       </c>
       <c r="D49" t="n">
-        <v>55</v>
+        <v>77.4</v>
       </c>
       <c r="E49" t="n">
         <v>0.1</v>
       </c>
       <c r="F49" t="n">
-        <v>55</v>
+        <v>-22.5</v>
       </c>
       <c r="G49" t="n">
         <v>0.9</v>
@@ -5360,13 +5367,13 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>53.6</v>
+        <v>74.5</v>
       </c>
       <c r="E50" t="n">
         <v>0.1</v>
       </c>
       <c r="F50" t="n">
-        <v>53.6</v>
+        <v>-20.8</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -5383,13 +5390,13 @@
         <v>1.2</v>
       </c>
       <c r="D51" t="n">
-        <v>37.3</v>
+        <v>66.1</v>
       </c>
       <c r="E51" t="n">
         <v>0.3</v>
       </c>
       <c r="F51" t="n">
-        <v>37.3</v>
+        <v>-28.7</v>
       </c>
       <c r="G51" t="n">
         <v>1.3</v>
@@ -5406,13 +5413,13 @@
         <v>1.1</v>
       </c>
       <c r="D52" t="n">
-        <v>59.5</v>
+        <v>79</v>
       </c>
       <c r="E52" t="n">
         <v>0.1</v>
       </c>
       <c r="F52" t="n">
-        <v>59.5</v>
+        <v>-19.5</v>
       </c>
       <c r="G52" t="n">
         <v>1.1</v>
@@ -5429,16 +5436,613 @@
         <v>2.8</v>
       </c>
       <c r="D53" t="n">
-        <v>66</v>
+        <v>78.3</v>
       </c>
       <c r="E53" t="n">
         <v>0.4</v>
       </c>
       <c r="F53" t="n">
-        <v>66</v>
+        <v>-12.3</v>
       </c>
       <c r="G53" t="n">
         <v>2.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n">
+        <v>19578200</v>
+      </c>
+      <c r="C2" t="n">
+        <v>775948400</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>23600</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1813300</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>379500</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11498800</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>82000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1627400</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>417900</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15630000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>266000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6861800</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1740300</v>
+      </c>
+      <c r="C8" t="n">
+        <v>94527400</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>345700</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13633600</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>169700</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9051500</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>46800</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2179600</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1054600</v>
+      </c>
+      <c r="C12" t="n">
+        <v>46612400</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>601200</v>
+      </c>
+      <c r="C13" t="n">
+        <v>24123500</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>75600</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3537400</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
+        <v>132500</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3659200</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>651400</v>
+      </c>
+      <c r="C16" t="n">
+        <v>32131800</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="n">
+        <v>506600</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16031100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n">
+        <v>207300</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7543000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n">
+        <v>215200</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6871800</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n">
+        <v>406800</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10891900</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="n">
+        <v>347300</v>
+      </c>
+      <c r="C21" t="n">
+        <v>10769900</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="n">
+        <v>116500</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3199300</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n">
+        <v>266900</v>
+      </c>
+      <c r="C23" t="n">
+        <v>15181700</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="n">
+        <v>342000</v>
+      </c>
+      <c r="C24" t="n">
+        <v>17336100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="n">
+        <v>704200</v>
+      </c>
+      <c r="C25" t="n">
+        <v>24439100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="n">
+        <v>358800</v>
+      </c>
+      <c r="C26" t="n">
+        <v>13696200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="n">
+        <v>241300</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6836100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="n">
+        <v>479400</v>
+      </c>
+      <c r="C28" t="n">
+        <v>14812100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="n">
+        <v>84700</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2399900</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="n">
+        <v>132300</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4491900</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="n">
+        <v>198200</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6747500</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="n">
+        <v>90300</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3458100</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="n">
+        <v>355700</v>
+      </c>
+      <c r="C33" t="n">
+        <v>22631000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="n">
+        <v>172200</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4597900</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="n">
+        <v>939200</v>
+      </c>
+      <c r="C35" t="n">
+        <v>49679300</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="n">
+        <v>643000</v>
+      </c>
+      <c r="C36" t="n">
+        <v>24222100</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="n">
+        <v>55200</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1820600</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="n">
+        <v>768200</v>
+      </c>
+      <c r="C38" t="n">
+        <v>28945600</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="n">
+        <v>376500</v>
+      </c>
+      <c r="C39" t="n">
+        <v>8598400</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="n">
+        <v>323700</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9908200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="n">
+        <v>794900</v>
+      </c>
+      <c r="C41" t="n">
+        <v>31578800</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="n">
+        <v>56500</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2647500</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="n">
+        <v>326300</v>
+      </c>
+      <c r="C43" t="n">
+        <v>11471900</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="n">
+        <v>62500</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1988900</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="n">
+        <v>515000</v>
+      </c>
+      <c r="C45" t="n">
+        <v>16044300</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1674500</v>
+      </c>
+      <c r="C46" t="n">
+        <v>62476400</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="n">
+        <v>156800</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6632500</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="n">
+        <v>51100</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1622100</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="n">
+        <v>447000</v>
+      </c>
+      <c r="C49" t="n">
+        <v>21137200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="n">
+        <v>538700</v>
+      </c>
+      <c r="C50" t="n">
+        <v>17909700</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="n">
+        <v>207200</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4354500</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="n">
+        <v>371500</v>
+      </c>
+      <c r="C52" t="n">
+        <v>14670000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="n">
+        <v>57900</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1418100</v>
       </c>
     </row>
   </sheetData>

--- a/HS.BA.Unemployment.Employment.byState.xlsx
+++ b/HS.BA.Unemployment.Employment.byState.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t xml:space="preserve">WY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR</t>
   </si>
   <si>
     <t xml:space="preserve">Deaf</t>
@@ -558,19 +561,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>82.4</v>
+        <v>82.1</v>
       </c>
       <c r="C2" t="n">
         <v>0.1</v>
       </c>
       <c r="D2" t="n">
-        <v>88.7</v>
+        <v>88.6</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.3</v>
+        <v>-6.5</v>
       </c>
       <c r="G2" t="n">
         <v>0.1</v>
@@ -1747,6 +1750,29 @@
       </c>
       <c r="G53" t="n">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
@@ -2982,6 +3008,29 @@
         <v>1.9</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D54" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-12.6</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -3030,7 +3079,7 @@
         <v>0.1</v>
       </c>
       <c r="D2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -4213,6 +4262,29 @@
       </c>
       <c r="G53" t="n">
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D54" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -4257,19 +4329,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>51.2</v>
+        <v>50.9</v>
       </c>
       <c r="C2" t="n">
         <v>0.1</v>
       </c>
       <c r="D2" t="n">
-        <v>74.1</v>
+        <v>73.9</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-22.9</v>
+        <v>-23</v>
       </c>
       <c r="G2" t="n">
         <v>0.1</v>
@@ -5446,6 +5518,29 @@
       </c>
       <c r="G53" t="n">
         <v>2.9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -5467,10 +5562,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
@@ -5478,10 +5573,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>19578200</v>
+        <v>19806100</v>
       </c>
       <c r="C2" t="n">
-        <v>775948400</v>
+        <v>783376800</v>
       </c>
     </row>
     <row r="3">
@@ -6043,6 +6138,17 @@
       </c>
       <c r="C53" t="n">
         <v>1418100</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="n">
+        <v>227900</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7428400</v>
       </c>
     </row>
   </sheetData>

--- a/HS.BA.Unemployment.Employment.byState.xlsx
+++ b/HS.BA.Unemployment.Employment.byState.xlsx
@@ -1,215 +1,221 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\stephanie cawthon\stateReports\stateHSBAEmployment2011to2016\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
   </bookViews>
   <sheets>
-    <sheet name="HS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Unemployment" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Total Employment" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sample Size" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="HS" sheetId="1" r:id="rId1"/>
+    <sheet name="BA" sheetId="2" r:id="rId2"/>
+    <sheet name="Unemployment" sheetId="3" r:id="rId3"/>
+    <sheet name="Total Employment" sheetId="4" r:id="rId4"/>
+    <sheet name="Sample Size" sheetId="5" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="62">
   <si>
-    <t xml:space="preserve"/>
+    <t/>
   </si>
   <si>
-    <t xml:space="preserve">deaf</t>
+    <t>deaf</t>
   </si>
   <si>
-    <t xml:space="preserve">deaf.SE</t>
+    <t>deaf.SE</t>
   </si>
   <si>
-    <t xml:space="preserve">hear</t>
+    <t>hear</t>
   </si>
   <si>
-    <t xml:space="preserve">hear.SE</t>
+    <t>hear.SE</t>
   </si>
   <si>
-    <t xml:space="preserve">gap</t>
+    <t>gap</t>
   </si>
   <si>
-    <t xml:space="preserve">gap.SE</t>
+    <t>gap.SE</t>
   </si>
   <si>
-    <t xml:space="preserve">US</t>
+    <t>US</t>
   </si>
   <si>
-    <t xml:space="preserve">DC</t>
+    <t>DC</t>
   </si>
   <si>
-    <t xml:space="preserve">AL</t>
+    <t>AL</t>
   </si>
   <si>
-    <t xml:space="preserve">AK</t>
+    <t>AK</t>
   </si>
   <si>
-    <t xml:space="preserve">AZ</t>
+    <t>AZ</t>
   </si>
   <si>
-    <t xml:space="preserve">AR</t>
+    <t>AR</t>
   </si>
   <si>
-    <t xml:space="preserve">CA</t>
+    <t>CA</t>
   </si>
   <si>
-    <t xml:space="preserve">CO</t>
+    <t>CO</t>
   </si>
   <si>
-    <t xml:space="preserve">CT</t>
+    <t>CT</t>
   </si>
   <si>
-    <t xml:space="preserve">DE</t>
+    <t>DE</t>
   </si>
   <si>
-    <t xml:space="preserve">FL</t>
+    <t>FL</t>
   </si>
   <si>
-    <t xml:space="preserve">GA</t>
+    <t>GA</t>
   </si>
   <si>
-    <t xml:space="preserve">HI</t>
+    <t>HI</t>
   </si>
   <si>
-    <t xml:space="preserve">ID</t>
+    <t>ID</t>
   </si>
   <si>
-    <t xml:space="preserve">IL</t>
+    <t>IL</t>
   </si>
   <si>
-    <t xml:space="preserve">IN</t>
+    <t>IN</t>
   </si>
   <si>
-    <t xml:space="preserve">IA</t>
+    <t>IA</t>
   </si>
   <si>
-    <t xml:space="preserve">KS</t>
+    <t>KS</t>
   </si>
   <si>
-    <t xml:space="preserve">KY</t>
+    <t>KY</t>
   </si>
   <si>
-    <t xml:space="preserve">LA</t>
+    <t>LA</t>
   </si>
   <si>
-    <t xml:space="preserve">ME</t>
+    <t>ME</t>
   </si>
   <si>
-    <t xml:space="preserve">MD</t>
+    <t>MD</t>
   </si>
   <si>
-    <t xml:space="preserve">MA</t>
+    <t>MA</t>
   </si>
   <si>
-    <t xml:space="preserve">MI</t>
+    <t>MI</t>
   </si>
   <si>
-    <t xml:space="preserve">MN</t>
+    <t>MN</t>
   </si>
   <si>
-    <t xml:space="preserve">MS</t>
+    <t>MS</t>
   </si>
   <si>
-    <t xml:space="preserve">MO</t>
+    <t>MO</t>
   </si>
   <si>
-    <t xml:space="preserve">MT</t>
+    <t>MT</t>
   </si>
   <si>
-    <t xml:space="preserve">NE</t>
+    <t>NE</t>
   </si>
   <si>
-    <t xml:space="preserve">NV</t>
+    <t>NV</t>
   </si>
   <si>
-    <t xml:space="preserve">NH</t>
+    <t>NH</t>
   </si>
   <si>
-    <t xml:space="preserve">NJ</t>
+    <t>NJ</t>
   </si>
   <si>
-    <t xml:space="preserve">NM</t>
+    <t>NM</t>
   </si>
   <si>
-    <t xml:space="preserve">NY</t>
+    <t>NY</t>
   </si>
   <si>
-    <t xml:space="preserve">NC</t>
+    <t>NC</t>
   </si>
   <si>
-    <t xml:space="preserve">ND</t>
+    <t>ND</t>
   </si>
   <si>
-    <t xml:space="preserve">OH</t>
+    <t>OH</t>
   </si>
   <si>
-    <t xml:space="preserve">OK</t>
+    <t>OK</t>
   </si>
   <si>
-    <t xml:space="preserve">OR</t>
+    <t>OR</t>
   </si>
   <si>
-    <t xml:space="preserve">PA</t>
+    <t>PA</t>
   </si>
   <si>
-    <t xml:space="preserve">RI</t>
+    <t>RI</t>
   </si>
   <si>
-    <t xml:space="preserve">SC</t>
+    <t>SC</t>
   </si>
   <si>
-    <t xml:space="preserve">SD</t>
+    <t>SD</t>
   </si>
   <si>
-    <t xml:space="preserve">TN</t>
+    <t>TN</t>
   </si>
   <si>
-    <t xml:space="preserve">TX</t>
+    <t>TX</t>
   </si>
   <si>
-    <t xml:space="preserve">UT</t>
+    <t>UT</t>
   </si>
   <si>
-    <t xml:space="preserve">VT</t>
+    <t>VT</t>
   </si>
   <si>
-    <t xml:space="preserve">VA</t>
+    <t>VA</t>
   </si>
   <si>
-    <t xml:space="preserve">WA</t>
+    <t>WA</t>
   </si>
   <si>
-    <t xml:space="preserve">WV</t>
+    <t>WV</t>
   </si>
   <si>
-    <t xml:space="preserve">WI</t>
+    <t>WI</t>
   </si>
   <si>
-    <t xml:space="preserve">WY</t>
+    <t>WY</t>
   </si>
   <si>
-    <t xml:space="preserve">PR</t>
+    <t>PR</t>
   </si>
   <si>
-    <t xml:space="preserve">Deaf</t>
+    <t>Deaf</t>
   </si>
   <si>
-    <t xml:space="preserve">Hearing</t>
+    <t>Hearing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -245,6 +251,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -526,14 +541,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,1240 +573,1240 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>82.1</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
         <v>88.6</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-6.5</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>82.2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3.3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>91.6</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.3</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-9.4</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>3.3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="n">
-        <v>78.9</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="C4">
         <v>0.9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>87.3</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4">
+        <v>0.1</v>
+      </c>
+      <c r="F4">
         <v>-8.4</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>88.7</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1.8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>93.5</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.3</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-4.8</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1.8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>83.7</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>86.6</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6">
+        <v>0.1</v>
+      </c>
+      <c r="F6">
         <v>-3</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>79.3</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>87.8</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7">
+        <v>0.2</v>
+      </c>
+      <c r="F7">
         <v>-8.5</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="n">
-        <v>77.6</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="C8">
         <v>0.4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>83.1</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
         <v>-5.5</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>88.2</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>91.5</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
         <v>-3.3</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>87.1</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1.2</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>92.3</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E10">
+        <v>0.1</v>
+      </c>
+      <c r="F10">
         <v>-5.3</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>1.2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>82.4</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>90.5</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.3</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-8.1</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>2.1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>83.3</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.5</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>89</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
         <v>-5.7</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>80.8</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.6</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>87.8</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="F13">
         <v>-7</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>0.6</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>90.6</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1.3</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>93.8</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E14">
+        <v>0.2</v>
+      </c>
+      <c r="F14">
         <v>-3.2</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>1.3</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>87.8</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1.4</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>90.7</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E15">
+        <v>0.2</v>
+      </c>
+      <c r="F15">
         <v>-2.9</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>1.4</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>84.7</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.6</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>90.1</v>
       </c>
-      <c r="E16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E16">
+        <v>0.1</v>
+      </c>
+      <c r="F16">
         <v>-5.4</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0.6</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>82.3</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.8</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>89.9</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E17">
+        <v>0.1</v>
+      </c>
+      <c r="F17">
         <v>-7.6</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.8</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>88.2</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.9</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>93.4</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E18">
+        <v>0.1</v>
+      </c>
+      <c r="F18">
         <v>-5.2</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.9</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>85.5</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>1.2</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>91.2</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E19">
+        <v>0.2</v>
+      </c>
+      <c r="F19">
         <v>-5.7</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>1.2</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="n">
-        <v>74.9</v>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="C20">
         <v>0.8</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>88</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E20">
+        <v>0.2</v>
+      </c>
+      <c r="F20">
         <v>-13.1</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>0.8</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>76.5</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>86.4</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E21">
+        <v>0.1</v>
+      </c>
+      <c r="F21">
         <v>-9.9</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>1</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>88.7</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>1.4</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>94.4</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E22">
+        <v>0.2</v>
+      </c>
+      <c r="F22">
         <v>-5.7</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>1.4</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>85.8</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.9</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>91.4</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E23">
+        <v>0.1</v>
+      </c>
+      <c r="F23">
         <v>-5.6</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>0.9</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>83.3</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.7</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>92.2</v>
       </c>
-      <c r="E24" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E24">
+        <v>0.1</v>
+      </c>
+      <c r="F24">
         <v>-8.9</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>0.7</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>84.3</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.6</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>91.7</v>
       </c>
-      <c r="E25" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E25">
+        <v>0.1</v>
+      </c>
+      <c r="F25">
         <v>-7.4</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>0.6</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>89</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.7</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>93.9</v>
       </c>
-      <c r="E26" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-4.9</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="E26">
+        <v>0.1</v>
+      </c>
+      <c r="F26">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="G26">
         <v>0.7</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>74.3</v>
       </c>
-      <c r="C27" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D27">
         <v>86.3</v>
       </c>
-      <c r="E27" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E27">
+        <v>0.2</v>
+      </c>
+      <c r="F27">
         <v>-12</v>
       </c>
-      <c r="G27" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="G27">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>83.5</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.7</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>91</v>
       </c>
-      <c r="E28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E28">
+        <v>0.1</v>
+      </c>
+      <c r="F28">
         <v>-7.5</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>0.7</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>90.6</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1.4</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>94.1</v>
       </c>
-      <c r="E29" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E29">
+        <v>0.2</v>
+      </c>
+      <c r="F29">
         <v>-3.5</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>1.4</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>89.9</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1.2</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>91.5</v>
       </c>
-      <c r="E30" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E30">
+        <v>0.2</v>
+      </c>
+      <c r="F30">
         <v>-1.5</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>1.2</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>83.5</v>
       </c>
-      <c r="C31" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D31">
         <v>86</v>
       </c>
-      <c r="E31" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E31">
+        <v>0.1</v>
+      </c>
+      <c r="F31">
         <v>-2.5</v>
       </c>
-      <c r="G31" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="G31">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>89</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1.4</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>94.4</v>
       </c>
-      <c r="E32" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E32">
+        <v>0.2</v>
+      </c>
+      <c r="F32">
         <v>-5.4</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>1.4</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>84.9</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.7</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>91.1</v>
       </c>
-      <c r="E33" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E33">
+        <v>0.1</v>
+      </c>
+      <c r="F33">
         <v>-6.2</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>0.7</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>79.7</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1.3</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>86.3</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>0.3</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-6.6</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>1.4</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B35" t="n">
-        <v>80.9</v>
-      </c>
-      <c r="C35" t="n">
+      <c r="B35">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="C35">
         <v>0.5</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>88.1</v>
       </c>
-      <c r="E35" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E35">
+        <v>0.1</v>
+      </c>
+      <c r="F35">
         <v>-7.3</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>0.5</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>80.8</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.6</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>88.3</v>
       </c>
-      <c r="E36" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E36">
+        <v>0.1</v>
+      </c>
+      <c r="F36">
         <v>-7.5</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>0.6</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>90.3</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>1.8</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>95</v>
       </c>
-      <c r="E37" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E37">
+        <v>0.2</v>
+      </c>
+      <c r="F37">
         <v>-4.7</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>1.8</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>84.2</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.6</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>91.7</v>
       </c>
-      <c r="E38" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E38">
+        <v>0.1</v>
+      </c>
+      <c r="F38">
         <v>-7.6</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>0.6</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>85.3</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.8</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>88.5</v>
       </c>
-      <c r="E39" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E39">
+        <v>0.1</v>
+      </c>
+      <c r="F39">
         <v>-3.2</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>0.7</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>86.4</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.8</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>90.4</v>
       </c>
-      <c r="E40" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>-4.1</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="E40">
+        <v>0.1</v>
+      </c>
+      <c r="F40">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="G40">
         <v>0.8</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>84.9</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.6</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>92</v>
       </c>
-      <c r="E41" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E41">
+        <v>0.1</v>
+      </c>
+      <c r="F41">
         <v>-7.1</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.6</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>80.2</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>2.1</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>89.8</v>
       </c>
-      <c r="E42" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E42">
+        <v>0.2</v>
+      </c>
+      <c r="F42">
         <v>-9.6</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>2.1</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>80.5</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.9</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>88.3</v>
       </c>
-      <c r="E43" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E43">
+        <v>0.1</v>
+      </c>
+      <c r="F43">
         <v>-7.9</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>0.9</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>91.6</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>1.5</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>93.4</v>
       </c>
-      <c r="E44" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E44">
+        <v>0.2</v>
+      </c>
+      <c r="F44">
         <v>-1.8</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>1.5</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>78</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.8</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>89</v>
       </c>
-      <c r="E45" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E45">
+        <v>0.1</v>
+      </c>
+      <c r="F45">
         <v>-10.9</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>0.8</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
-      <c r="B46" t="n">
-        <v>78.4</v>
-      </c>
-      <c r="C46" t="n">
+      <c r="B46">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="C46">
         <v>0.4</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>83.9</v>
       </c>
-      <c r="E46" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E46">
+        <v>0.1</v>
+      </c>
+      <c r="F46">
         <v>-5.5</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>0.4</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>92.5</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.9</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>91.8</v>
       </c>
-      <c r="E47" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E47">
+        <v>0.1</v>
+      </c>
+      <c r="F47">
         <v>0.7</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>0.9</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>87.8</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>1.9</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>93.7</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>0.3</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-5.9</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>1.9</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>83.5</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.7</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>90.9</v>
       </c>
-      <c r="E49" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E49">
+        <v>0.1</v>
+      </c>
+      <c r="F49">
         <v>-7.4</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>0.7</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>86.8</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>0.6</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>91.2</v>
       </c>
-      <c r="E50" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F50" t="n">
-        <v>-4.4</v>
-      </c>
-      <c r="G50" t="n">
+      <c r="E50">
+        <v>0.1</v>
+      </c>
+      <c r="F50">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="G50">
         <v>0.6</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>76.3</v>
       </c>
-      <c r="C51" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D51" t="n">
+      <c r="C51">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D51">
         <v>89</v>
       </c>
-      <c r="E51" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F51" t="n">
+      <c r="E51">
+        <v>0.2</v>
+      </c>
+      <c r="F51">
         <v>-12.7</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>1.2</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>87.6</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0.7</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>93</v>
       </c>
-      <c r="E52" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F52" t="n">
+      <c r="E52">
+        <v>0.1</v>
+      </c>
+      <c r="F52">
         <v>-5.4</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>0.7</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>90.3</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>1.6</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>94</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>0.3</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-3.6</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>1.6</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>65.3</v>
       </c>
-      <c r="C54" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D54" t="n">
+      <c r="C54">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D54">
         <v>82.8</v>
       </c>
-      <c r="E54" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F54" t="n">
+      <c r="E54">
+        <v>0.2</v>
+      </c>
+      <c r="F54">
         <v>-17.5</v>
       </c>
-      <c r="G54" t="n">
-        <v>1.1</v>
+      <c r="G54">
+        <v>1.1000000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1812,1240 +1829,1240 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="B2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
+      <c r="F2">
         <v>-14.7</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="C3">
         <v>3.5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>59.7</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.4</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-25.8</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>3.6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>14.5</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>25.6</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
         <v>-11.2</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>15</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>29.6</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.6</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-14.6</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C6">
         <v>0.7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>28.8</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6">
+        <v>0.1</v>
+      </c>
+      <c r="F6">
         <v>-11.3</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>12.1</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>23.2</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7">
+        <v>0.2</v>
+      </c>
+      <c r="F7">
         <v>-11</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.9</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>19.5</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>33</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
         <v>-13.5</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>25.7</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.9</v>
       </c>
-      <c r="D9" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="D9">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E9">
+        <v>0.2</v>
+      </c>
+      <c r="F9">
         <v>-14.5</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>25.2</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1.2</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>41</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+      <c r="F10">
         <v>-15.8</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>1.2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C11">
         <v>2.1</v>
       </c>
-      <c r="D11" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="E11">
         <v>0.4</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-13.3</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>2.1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>18.7</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.4</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>29</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
         <v>-10.3</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>17</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.6</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>31.3</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="F13">
         <v>-14.3</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>0.6</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>24</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1.9</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>33.1</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>0.4</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-9.1</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>1.9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>19.3</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1.5</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>27</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>0.3</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-7.7</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>1.6</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>19.5</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.6</v>
       </c>
-      <c r="D16" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="D16">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E16">
+        <v>0.1</v>
+      </c>
+      <c r="F16">
         <v>-16.3</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0.6</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>13.6</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.6</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>26.9</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E17">
+        <v>0.2</v>
+      </c>
+      <c r="F17">
         <v>-13.4</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.6</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>15.8</v>
       </c>
-      <c r="C18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D18">
         <v>30.2</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E18">
+        <v>0.2</v>
+      </c>
+      <c r="F18">
         <v>-14.4</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>1.2</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>19.8</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>33.9</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>0.3</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-14.2</v>
       </c>
-      <c r="G19" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="G19">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>11.7</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.6</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>25</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E20">
+        <v>0.2</v>
+      </c>
+      <c r="F20">
         <v>-13.3</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>0.6</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>12.9</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.7</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>24.5</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E21">
+        <v>0.2</v>
+      </c>
+      <c r="F21">
         <v>-11.6</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>0.7</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>15.2</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>1.5</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>30.8</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>0.4</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-15.6</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>1.5</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>24.6</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>40.5</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E23">
+        <v>0.2</v>
+      </c>
+      <c r="F23">
         <v>-15.9</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>1</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>23.8</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.9</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>44.7</v>
       </c>
-      <c r="E24" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E24">
+        <v>0.1</v>
+      </c>
+      <c r="F24">
         <v>-20.9</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>0.9</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>14.8</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.6</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>29.5</v>
       </c>
-      <c r="E25" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E25">
+        <v>0.1</v>
+      </c>
+      <c r="F25">
         <v>-14.7</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>0.6</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>18.7</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.9</v>
       </c>
-      <c r="D26" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="D26">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E26">
+        <v>0.2</v>
+      </c>
+      <c r="F26">
         <v>-18</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>0.9</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>12.3</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.8</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>22.2</v>
       </c>
-      <c r="E27" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-9.8</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="E27">
+        <v>0.2</v>
+      </c>
+      <c r="F27">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="G27">
         <v>0.9</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>14.7</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.7</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>30.2</v>
       </c>
-      <c r="E28" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E28">
+        <v>0.2</v>
+      </c>
+      <c r="F28">
         <v>-15.5</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>0.7</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>21.3</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1.8</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>30.4</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>0.4</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-9.1</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>1.9</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>16.2</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1.5</v>
       </c>
-      <c r="D30" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E30">
         <v>0.3</v>
       </c>
-      <c r="F30" t="n">
-        <v>-17.6</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="F30">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="G30">
         <v>1.6</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>14.5</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>23.5</v>
       </c>
-      <c r="E31" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E31">
+        <v>0.2</v>
+      </c>
+      <c r="F31">
         <v>-9</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>1</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>23.3</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1.7</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>37.6</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>0.3</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-14.3</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>1.7</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>24.3</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.9</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>40.6</v>
       </c>
-      <c r="E33" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E33">
+        <v>0.1</v>
+      </c>
+      <c r="F33">
         <v>-16.3</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>0.9</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B34" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="C34" t="n">
+      <c r="B34">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C34">
         <v>1.2</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>26.6</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>0.3</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-9.5</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>1.3</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>22.2</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.6</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>37.5</v>
       </c>
-      <c r="E35" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E35">
+        <v>0.1</v>
+      </c>
+      <c r="F35">
         <v>-15.3</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>0.6</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>16.7</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.6</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>31.1</v>
       </c>
-      <c r="E36" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E36">
+        <v>0.1</v>
+      </c>
+      <c r="F36">
         <v>-14.4</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>0.6</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C37" t="n">
+      <c r="B37">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C37">
         <v>2.1</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>31.3</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>0.5</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-12.2</v>
       </c>
-      <c r="G37" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="G37">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>13.6</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.5</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>29.2</v>
       </c>
-      <c r="E38" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E38">
+        <v>0.1</v>
+      </c>
+      <c r="F38">
         <v>-15.6</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>0.5</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
-      <c r="B39" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C39" t="n">
+      <c r="B39">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C39">
         <v>0.8</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>26.1</v>
       </c>
-      <c r="E39" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F39" t="n">
-        <v>-9.7</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="E39">
+        <v>0.2</v>
+      </c>
+      <c r="F39">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="G39">
         <v>0.8</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
-      <c r="B40" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="C40" t="n">
+      <c r="B40">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C40">
         <v>0.9</v>
       </c>
-      <c r="D40" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="D40">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E40">
+        <v>0.2</v>
+      </c>
+      <c r="F40">
         <v>-15.2</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>0.9</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>15.4</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.5</v>
       </c>
-      <c r="D41" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="D41">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E41">
+        <v>0.1</v>
+      </c>
+      <c r="F41">
         <v>-17.3</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.5</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>17.5</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>2.1</v>
       </c>
-      <c r="D42" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E42">
         <v>0.4</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-17.2</v>
       </c>
-      <c r="G42" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="G42">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
-      <c r="B43" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C43" t="n">
+      <c r="B43">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C43">
         <v>0.8</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>27.9</v>
       </c>
-      <c r="E43" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E43">
+        <v>0.2</v>
+      </c>
+      <c r="F43">
         <v>-11.8</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>0.8</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>16.5</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>1.8</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>30</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>0.5</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-13.5</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>1.9</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>13.3</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.6</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>27.7</v>
       </c>
-      <c r="E45" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E45">
+        <v>0.2</v>
+      </c>
+      <c r="F45">
         <v>-14.5</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>0.6</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>17.5</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.4</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>29.5</v>
       </c>
-      <c r="E46" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E46">
+        <v>0.1</v>
+      </c>
+      <c r="F46">
         <v>-12</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>0.4</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>20.3</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>1.2</v>
       </c>
-      <c r="D47" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="D47">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E47">
+        <v>0.2</v>
+      </c>
+      <c r="F47">
         <v>-11.9</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>1.2</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>20</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>2.1</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>37.6</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>0.7</v>
       </c>
-      <c r="F48" t="n">
-        <v>-17.6</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="F48">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="G48">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>23.7</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.7</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>39.5</v>
       </c>
-      <c r="E49" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E49">
+        <v>0.2</v>
+      </c>
+      <c r="F49">
         <v>-15.8</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>0.7</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="B50" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="C50" t="n">
+      <c r="B50">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="C50">
         <v>0.5</v>
       </c>
-      <c r="D50" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="D50">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E50">
+        <v>0.1</v>
+      </c>
+      <c r="F50">
         <v>-15.2</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>0.5</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>8.9</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>0.7</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>22</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>0.3</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-13.1</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>0.8</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
-      <c r="B52" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C52" t="n">
+      <c r="B52">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C52">
         <v>0.7</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>31.1</v>
       </c>
-      <c r="E52" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F52" t="n">
+      <c r="E52">
+        <v>0.2</v>
+      </c>
+      <c r="F52">
         <v>-14.7</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>0.7</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>16.5</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>2</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>27.3</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>0.6</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-10.8</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>1.9</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>16.2</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.8</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>28.8</v>
       </c>
-      <c r="E54" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F54" t="n">
+      <c r="E54">
+        <v>0.2</v>
+      </c>
+      <c r="F54">
         <v>-12.6</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>0.8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3068,1240 +3085,1240 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>5.2</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
         <v>4.8</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.4</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>3.3</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1.3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>6.1</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
         <v>-2.8</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>1.3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4.8</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="E4">
+        <v>0.1</v>
+      </c>
+      <c r="F4">
+        <v>0.2</v>
+      </c>
+      <c r="G4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>8</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1.3</v>
       </c>
-      <c r="D5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="D5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
         <v>2.9</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1.3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C6">
         <v>0.4</v>
       </c>
-      <c r="D6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="D6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E6">
+        <v>0.1</v>
+      </c>
+      <c r="F6">
+        <v>0.1</v>
+      </c>
+      <c r="G6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C7">
         <v>0.5</v>
       </c>
-      <c r="D7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="D7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E7">
+        <v>0.1</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>0.2</v>
+      </c>
+      <c r="D8">
         <v>5.6</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.4</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="G8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>5.4</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>3.9</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
         <v>1.5</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>6.1</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.7</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>5.7</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E10">
+        <v>0.1</v>
+      </c>
+      <c r="F10">
         <v>0.4</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>5.2</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1.4</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>4.7</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11">
+        <v>0.2</v>
+      </c>
+      <c r="F11">
         <v>0.6</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1.4</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>5.7</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.3</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>5.5</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="F12">
+        <v>0.2</v>
+      </c>
+      <c r="G12">
         <v>0.3</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>5.4</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.4</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>5.2</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="F13">
+        <v>0.2</v>
+      </c>
+      <c r="G13">
         <v>0.4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>3.1</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.7</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>3.4</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+      <c r="F14">
         <v>-0.4</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>0.7</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>5.6</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>3.6</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E15">
+        <v>0.1</v>
+      </c>
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>1</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>6.2</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.4</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>5.5</v>
       </c>
-      <c r="E16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E16">
+        <v>0.1</v>
+      </c>
+      <c r="F16">
         <v>0.7</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0.4</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C17">
         <v>0.4</v>
       </c>
-      <c r="D17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="D17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E17">
+        <v>0.1</v>
+      </c>
+      <c r="F17">
+        <v>0.1</v>
+      </c>
+      <c r="G17">
         <v>0.4</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C18">
         <v>0.6</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>2.9</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E18">
+        <v>0.1</v>
+      </c>
+      <c r="F18">
         <v>1.5</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.6</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>4.5</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.6</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>3.5</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="E19">
+        <v>0.1</v>
+      </c>
+      <c r="F19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G19">
         <v>0.6</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>4</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.4</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>4.5</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E20">
+        <v>0.1</v>
+      </c>
+      <c r="F20">
         <v>-0.5</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>0.4</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>4.7</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.5</v>
       </c>
-      <c r="D21" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="D21">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E21">
+        <v>0.1</v>
+      </c>
+      <c r="F21">
+        <v>0.2</v>
+      </c>
+      <c r="G21">
         <v>0.5</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>4</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.8</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>3.9</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="E22">
+        <v>0.2</v>
+      </c>
+      <c r="F22">
+        <v>0.1</v>
+      </c>
+      <c r="G22">
         <v>0.8</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>5.8</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.6</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>4.5</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E23">
+        <v>0.1</v>
+      </c>
+      <c r="F23">
         <v>1.3</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>0.7</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>6.3</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.5</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>4.7</v>
       </c>
-      <c r="E24" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E24">
+        <v>0.1</v>
+      </c>
+      <c r="F24">
         <v>1.7</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>0.5</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>5.5</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.3</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>5.4</v>
       </c>
-      <c r="E25" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="E25">
+        <v>0.1</v>
+      </c>
+      <c r="F25">
+        <v>0.1</v>
+      </c>
+      <c r="G25">
         <v>0.3</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>5.2</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.6</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>3.4</v>
       </c>
-      <c r="E26" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E26">
+        <v>0.1</v>
+      </c>
+      <c r="F26">
         <v>1.8</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>0.6</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="C27" t="n">
+      <c r="B27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C27">
         <v>0.6</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>5.6</v>
       </c>
-      <c r="E27" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E27">
+        <v>0.1</v>
+      </c>
+      <c r="F27">
         <v>-1</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>0.6</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C28" t="n">
+      <c r="B28">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C28">
         <v>0.4</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>4.2</v>
       </c>
-      <c r="E28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E28">
+        <v>0.1</v>
+      </c>
+      <c r="F28">
         <v>0.9</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>0.4</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="C29" t="n">
+      <c r="B29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C29">
         <v>0.9</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>3.8</v>
       </c>
-      <c r="E29" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E29">
+        <v>0.2</v>
+      </c>
+      <c r="F29">
         <v>0.8</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>0.8</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>3</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.6</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>2.6</v>
       </c>
-      <c r="E30" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E30">
+        <v>0.1</v>
+      </c>
+      <c r="F30">
         <v>0.4</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>0.6</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>5.4</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.6</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>6.3</v>
       </c>
-      <c r="E31" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E31">
+        <v>0.1</v>
+      </c>
+      <c r="F31">
         <v>-1</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>0.6</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>4</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.9</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>3.3</v>
       </c>
-      <c r="E32" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E32">
+        <v>0.1</v>
+      </c>
+      <c r="F32">
         <v>0.7</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>0.9</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>7.4</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.5</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>5.4</v>
       </c>
-      <c r="E33" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E33">
+        <v>0.1</v>
+      </c>
+      <c r="F33">
         <v>2</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>3.9</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.7</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>5</v>
       </c>
-      <c r="E34" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="E34">
+        <v>0.2</v>
+      </c>
+      <c r="F34">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G34">
         <v>0.7</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>5.2</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.3</v>
       </c>
-      <c r="D35" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>0.3</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>0.3</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>5.8</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.3</v>
       </c>
-      <c r="D36" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="D36">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E36">
+        <v>0.1</v>
+      </c>
+      <c r="F36">
         <v>0.6</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>0.3</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>2.8</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.9</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>2.1</v>
       </c>
-      <c r="E37" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E37">
+        <v>0.2</v>
+      </c>
+      <c r="F37">
         <v>0.7</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>0.9</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="B38" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C38" t="n">
+      <c r="B38">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C38">
         <v>0.3</v>
       </c>
-      <c r="D38" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="D38">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E38">
+        <v>0.1</v>
+      </c>
+      <c r="F38">
         <v>0.5</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>0.3</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>3.4</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.3</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>3.6</v>
       </c>
-      <c r="E39" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E39">
+        <v>0.1</v>
+      </c>
+      <c r="F39">
         <v>-0.2</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>0.3</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>5.3</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.5</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>5.2</v>
       </c>
-      <c r="E40" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="E40">
+        <v>0.1</v>
+      </c>
+      <c r="F40">
+        <v>0.1</v>
+      </c>
+      <c r="G40">
         <v>0.5</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>5.4</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.4</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>4.7</v>
       </c>
-      <c r="E41" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E41">
+        <v>0.1</v>
+      </c>
+      <c r="F41">
         <v>0.6</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.3</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="B42" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D42" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="B42">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D42">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E42">
+        <v>0.2</v>
+      </c>
+      <c r="F42">
         <v>-0.2</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>1.2</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>5.3</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.4</v>
       </c>
-      <c r="D43" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G43" t="n">
+      <c r="D43">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E43">
+        <v>0.1</v>
+      </c>
+      <c r="F43">
+        <v>0.2</v>
+      </c>
+      <c r="G43">
         <v>0.4</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>3.4</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>1.2</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>2.8</v>
       </c>
-      <c r="E44" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E44">
+        <v>0.2</v>
+      </c>
+      <c r="F44">
         <v>0.6</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>1.2</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="B45" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="C45" t="n">
+      <c r="B45">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C45">
         <v>0.4</v>
       </c>
-      <c r="D45" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="D45">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E45">
+        <v>0.1</v>
+      </c>
+      <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>0.4</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>4.7</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46">
+        <v>0.2</v>
+      </c>
+      <c r="D46">
         <v>4</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>0.7</v>
       </c>
-      <c r="G46" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="G46">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
-      <c r="B47" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="C47" t="n">
+      <c r="B47">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C47">
         <v>0.6</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>3.1</v>
       </c>
-      <c r="E47" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E47">
+        <v>0.1</v>
+      </c>
+      <c r="F47">
         <v>1.5</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>0.7</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="B48" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C48" t="n">
+      <c r="B48">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C48">
         <v>0.7</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>3.3</v>
       </c>
-      <c r="E48" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E48">
+        <v>0.2</v>
+      </c>
+      <c r="F48">
         <v>0.8</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>0.8</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
-      <c r="B49" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C49" t="n">
+      <c r="B49">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C49">
         <v>0.4</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>3.8</v>
       </c>
-      <c r="E49" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E49">
+        <v>0.1</v>
+      </c>
+      <c r="F49">
         <v>0.6</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>0.4</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>5.3</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>0.4</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>4.3</v>
       </c>
-      <c r="E50" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="E50">
+        <v>0.1</v>
+      </c>
+      <c r="F50">
         <v>1</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>0.4</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>3.9</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>0.5</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>4.3</v>
       </c>
-      <c r="E51" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F51" t="n">
+      <c r="E51">
+        <v>0.1</v>
+      </c>
+      <c r="F51">
         <v>-0.3</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>0.5</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>4.5</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0.5</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>3.8</v>
       </c>
-      <c r="E52" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F52" t="n">
+      <c r="E52">
+        <v>0.1</v>
+      </c>
+      <c r="F52">
         <v>0.8</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>0.5</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>7.5</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>1.8</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>3.7</v>
       </c>
-      <c r="E53" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F53" t="n">
+      <c r="E53">
+        <v>0.2</v>
+      </c>
+      <c r="F53">
         <v>3.8</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>1.8</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>6.2</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.6</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>9.1</v>
       </c>
-      <c r="E54" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F54" t="n">
+      <c r="E54">
+        <v>0.2</v>
+      </c>
+      <c r="F54">
         <v>-2.9</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>0.6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4324,1240 +4341,1240 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>50.9</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>73.9</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-23</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>50.9</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>4.3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>77.2</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.4</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-26.4</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>4.3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>46.1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>68.2</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
         <v>-22.2</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>56.1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>2.5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>75.5</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.5</v>
       </c>
-      <c r="F5" t="n">
-        <v>-19.4</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="F5">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="G5">
         <v>2.6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>49</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>71</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+      <c r="F6">
         <v>-22.1</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>46.3</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1.2</v>
       </c>
-      <c r="D7" t="n">
-        <v>70.1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="D7">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="E7">
+        <v>0.2</v>
+      </c>
+      <c r="F7">
         <v>-23.7</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>1.2</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>48.7</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.5</v>
       </c>
-      <c r="D8" t="n">
-        <v>72.6</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-23.9</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>57.9</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>77.8</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-19.9</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="G9">
         <v>0.9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>59.9</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1.4</v>
       </c>
-      <c r="D10" t="n">
-        <v>77.4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="D10">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+      <c r="F10">
         <v>-17.5</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>1.3</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>53.4</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>2.9</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>75.2</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.4</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-21.8</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>2.9</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>47</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.7</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>72</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
         <v>-25</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>0.7</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>49.1</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.7</v>
       </c>
-      <c r="D13" t="n">
-        <v>72.1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="D13">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="F13">
         <v>-23</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>0.7</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>59.4</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1.9</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>77.3</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E14">
+        <v>0.2</v>
+      </c>
+      <c r="F14">
         <v>-18</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>1.9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>56.8</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1.9</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>74</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>0.3</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-17.2</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>1.8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>52.5</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.8</v>
       </c>
-      <c r="D16" t="n">
-        <v>75.4</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="D16">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="E16">
+        <v>0.1</v>
+      </c>
+      <c r="F16">
         <v>-22.9</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0.8</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>53.6</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.9</v>
       </c>
-      <c r="D17" t="n">
-        <v>74.9</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="D17">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="E17">
+        <v>0.1</v>
+      </c>
+      <c r="F17">
         <v>-21.3</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.9</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>62.3</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1.4</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>80.8</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E18">
+        <v>0.2</v>
+      </c>
+      <c r="F18">
         <v>-18.5</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>1.4</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>58.8</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>1.7</v>
       </c>
-      <c r="D19" t="n">
-        <v>78.4</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-19.6</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="D19">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="E19">
+        <v>0.2</v>
+      </c>
+      <c r="F19">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="G19">
         <v>1.7</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>41.9</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.9</v>
       </c>
-      <c r="D20" t="n">
-        <v>69.1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="D20">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="E20">
+        <v>0.2</v>
+      </c>
+      <c r="F20">
         <v>-27.3</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>0.9</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>48.6</v>
       </c>
-      <c r="C21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D21">
         <v>70.7</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E21">
+        <v>0.2</v>
+      </c>
+      <c r="F21">
         <v>-22.1</v>
       </c>
-      <c r="G21" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="G21">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>51.2</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>1.8</v>
       </c>
-      <c r="D22" t="n">
-        <v>74.9</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="E22">
         <v>0.4</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-23.7</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>1.9</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>58.5</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1.3</v>
       </c>
-      <c r="D23" t="n">
-        <v>78.9</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-20.4</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="D23">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="E23">
+        <v>0.1</v>
+      </c>
+      <c r="F23">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="G23">
         <v>1.3</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>51.9</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>1.2</v>
       </c>
-      <c r="D24" t="n">
-        <v>78.1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="D24">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E24">
+        <v>0.1</v>
+      </c>
+      <c r="F24">
         <v>-26.2</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>1.2</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>48.3</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.7</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>71</v>
       </c>
-      <c r="E25" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E25">
+        <v>0.1</v>
+      </c>
+      <c r="F25">
         <v>-22.7</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>0.7</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>62.7</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1.2</v>
       </c>
-      <c r="D26" t="n">
-        <v>81.6</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="D26">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="E26">
+        <v>0.1</v>
+      </c>
+      <c r="F26">
         <v>-19</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>1.2</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>43.9</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1.2</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>68</v>
       </c>
-      <c r="E27" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E27">
+        <v>0.2</v>
+      </c>
+      <c r="F27">
         <v>-24.1</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>1.2</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>48.8</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" t="n">
-        <v>74.6</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="D28">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="E28">
+        <v>0.1</v>
+      </c>
+      <c r="F28">
         <v>-25.8</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>1</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>56.5</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>2.4</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>75.2</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>0.3</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-18.7</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>2.4</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>65.2</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>82.4</v>
       </c>
-      <c r="E30" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E30">
+        <v>0.2</v>
+      </c>
+      <c r="F30">
         <v>-17.2</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>2.1</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>55.2</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1.3</v>
       </c>
-      <c r="D31" t="n">
-        <v>72.4</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="D31">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="E31">
+        <v>0.2</v>
+      </c>
+      <c r="F31">
         <v>-17.2</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>1.3</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>59.6</v>
       </c>
-      <c r="C32" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D32" t="n">
-        <v>80.4</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="C32">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D32">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="E32">
+        <v>0.2</v>
+      </c>
+      <c r="F32">
         <v>-20.8</v>
       </c>
-      <c r="G32" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="G32">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>53.2</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>76.3</v>
       </c>
-      <c r="E33" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E33">
+        <v>0.1</v>
+      </c>
+      <c r="F33">
         <v>-23</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>1</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>43.4</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1.5</v>
       </c>
-      <c r="D34" t="n">
-        <v>69.1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="D34">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="E34">
+        <v>0.2</v>
+      </c>
+      <c r="F34">
         <v>-25.6</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>1.5</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>50.3</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.6</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>74.5</v>
       </c>
-      <c r="E35" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E35">
+        <v>0.1</v>
+      </c>
+      <c r="F35">
         <v>-24.1</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>0.6</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>47.8</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.7</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>72.8</v>
       </c>
-      <c r="E36" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E36">
+        <v>0.1</v>
+      </c>
+      <c r="F36">
         <v>-24.9</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>0.8</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>66.5</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>3.6</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>82.8</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>0.3</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-16.3</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>3.6</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>50.4</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.6</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>74.2</v>
       </c>
-      <c r="E38" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E38">
+        <v>0.1</v>
+      </c>
+      <c r="F38">
         <v>-23.8</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>0.6</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>52.1</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" t="n">
-        <v>72.9</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="D39">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="E39">
+        <v>0.2</v>
+      </c>
+      <c r="F39">
         <v>-20.7</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>50.4</v>
       </c>
-      <c r="C40" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>72.6</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="C40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D40">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="E40">
+        <v>0.2</v>
+      </c>
+      <c r="F40">
         <v>-22.3</v>
       </c>
-      <c r="G40" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="G40">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>52.7</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.8</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>74.8</v>
       </c>
-      <c r="E41" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E41">
+        <v>0.1</v>
+      </c>
+      <c r="F41">
         <v>-22.1</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.8</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>53.3</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>2.7</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>76.3</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>0.3</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-23</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>2.7</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>47.2</v>
       </c>
-      <c r="C43" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D43" t="n">
-        <v>71.4</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="C43">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D43">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E43">
+        <v>0.2</v>
+      </c>
+      <c r="F43">
         <v>-24.3</v>
       </c>
-      <c r="G43" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="G43">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>67.5</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>2.8</v>
       </c>
-      <c r="D44" t="n">
-        <v>81.6</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="E44">
         <v>0.4</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-14.1</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>2.7</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>45.2</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.9</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>71.3</v>
       </c>
-      <c r="E45" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E45">
+        <v>0.1</v>
+      </c>
+      <c r="F45">
         <v>-26.1</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>0.9</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>53.2</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.6</v>
       </c>
-      <c r="D46" t="n">
-        <v>74.6</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="D46">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="E46">
+        <v>0.1</v>
+      </c>
+      <c r="F46">
         <v>-21.5</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>0.6</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>59.1</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>1.6</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>76</v>
       </c>
-      <c r="E47" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E47">
+        <v>0.2</v>
+      </c>
+      <c r="F47">
         <v>-17</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>1.6</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>54.3</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>2.5</v>
       </c>
-      <c r="D48" t="n">
-        <v>79.4</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="E48">
         <v>0.5</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-25.2</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>2.5</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>55</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.9</v>
       </c>
-      <c r="D49" t="n">
-        <v>77.4</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="D49">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="E49">
+        <v>0.1</v>
+      </c>
+      <c r="F49">
         <v>-22.5</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>0.9</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>53.6</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>1</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>74.5</v>
       </c>
-      <c r="E50" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="E50">
+        <v>0.1</v>
+      </c>
+      <c r="F50">
         <v>-20.8</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>1</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
-      <c r="B51" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="C51" t="n">
+      <c r="B51">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C51">
         <v>1.2</v>
       </c>
-      <c r="D51" t="n">
-        <v>66.1</v>
-      </c>
-      <c r="E51" t="n">
+      <c r="D51">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="E51">
         <v>0.3</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-28.7</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>1.3</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>59.5</v>
       </c>
-      <c r="C52" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D52" t="n">
+      <c r="C52">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D52">
         <v>79</v>
       </c>
-      <c r="E52" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F52" t="n">
+      <c r="E52">
+        <v>0.1</v>
+      </c>
+      <c r="F52">
         <v>-19.5</v>
       </c>
-      <c r="G52" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="G52">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>66</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>2.8</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>78.3</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>0.4</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-12.3</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>2.9</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>28.1</v>
       </c>
-      <c r="C54" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D54" t="n">
+      <c r="C54">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D54">
         <v>52.6</v>
       </c>
-      <c r="E54" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F54" t="n">
+      <c r="E54">
+        <v>0.2</v>
+      </c>
+      <c r="F54">
         <v>-24.5</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>1.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5568,591 +5585,591 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>19806100</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>783376800</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>23600</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1813300</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>379500</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>11498800</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>82000</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1627400</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>417900</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>15630000</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>266000</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>6861800</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1740300</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>94527400</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>345700</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>13633600</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>169700</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>9051500</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>46800</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>2179600</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1054600</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>46612400</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>601200</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>24123500</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>75600</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>3537400</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>132500</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3659200</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>651400</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>32131800</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>506600</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>16031100</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>207300</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>7543000</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>215200</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>6871800</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>406800</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>10891900</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>347300</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>10769900</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>116500</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>3199300</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>266900</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>15181700</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>342000</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>17336100</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>704200</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>24439100</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>358800</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>13696200</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>241300</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>6836100</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>479400</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>14812100</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>84700</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>2399900</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>132300</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>4491900</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>198200</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>6747500</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>90300</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>3458100</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>355700</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>22631000</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>172200</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>4597900</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>939200</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>49679300</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>643000</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>24222100</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>55200</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>1820600</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>768200</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>28945600</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>376500</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>8598400</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>323700</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>9908200</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>794900</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>31578800</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>56500</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>2647500</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>326300</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>11471900</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>62500</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>1988900</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>515000</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>16044300</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>1674500</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>62476400</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>156800</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>6632500</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>51100</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>1622100</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>447000</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>21137200</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>538700</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>17909700</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>207200</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>4354500</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>371500</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>14670000</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>57900</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>1418100</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>227900</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>7428400</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/HS.BA.Unemployment.Employment.byState.xlsx
+++ b/HS.BA.Unemployment.Employment.byState.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="HS" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Total Employment" sheetId="4" r:id="rId4"/>
     <sheet name="Sample Size" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -544,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
@@ -4314,7 +4314,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5570,7 +5572,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5590,10 +5594,10 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>19806100</v>
+        <v>198061</v>
       </c>
       <c r="C2">
-        <v>783376800</v>
+        <v>7833768</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5601,10 +5605,10 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>23600</v>
+        <v>236</v>
       </c>
       <c r="C3">
-        <v>1813300</v>
+        <v>18133</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5612,10 +5616,10 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>379500</v>
+        <v>3795</v>
       </c>
       <c r="C4">
-        <v>11498800</v>
+        <v>114988</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5623,10 +5627,10 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>82000</v>
+        <v>820</v>
       </c>
       <c r="C5">
-        <v>1627400</v>
+        <v>16274</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5634,10 +5638,10 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>417900</v>
+        <v>4179</v>
       </c>
       <c r="C6">
-        <v>15630000</v>
+        <v>156300</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5645,10 +5649,10 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>266000</v>
+        <v>2660</v>
       </c>
       <c r="C7">
-        <v>6861800</v>
+        <v>68618</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5656,10 +5660,10 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>1740300</v>
+        <v>17403</v>
       </c>
       <c r="C8">
-        <v>94527400</v>
+        <v>945274</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5667,10 +5671,10 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>345700</v>
+        <v>3457</v>
       </c>
       <c r="C9">
-        <v>13633600</v>
+        <v>136336</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5678,10 +5682,10 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>169700</v>
+        <v>1697</v>
       </c>
       <c r="C10">
-        <v>9051500</v>
+        <v>90515</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5689,10 +5693,10 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>46800</v>
+        <v>468</v>
       </c>
       <c r="C11">
-        <v>2179600</v>
+        <v>21796</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5700,10 +5704,10 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>1054600</v>
+        <v>10546</v>
       </c>
       <c r="C12">
-        <v>46612400</v>
+        <v>466124</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5711,10 +5715,10 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>601200</v>
+        <v>6012</v>
       </c>
       <c r="C13">
-        <v>24123500</v>
+        <v>241235</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5722,10 +5726,10 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>75600</v>
+        <v>756</v>
       </c>
       <c r="C14">
-        <v>3537400</v>
+        <v>35374</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5733,10 +5737,10 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>132500</v>
+        <v>1325</v>
       </c>
       <c r="C15">
-        <v>3659200</v>
+        <v>36592</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5744,10 +5748,10 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>651400</v>
+        <v>6514</v>
       </c>
       <c r="C16">
-        <v>32131800</v>
+        <v>321318</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5755,10 +5759,10 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>506600</v>
+        <v>5066</v>
       </c>
       <c r="C17">
-        <v>16031100</v>
+        <v>160311</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5766,10 +5770,10 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>207300</v>
+        <v>2073</v>
       </c>
       <c r="C18">
-        <v>7543000</v>
+        <v>75430</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5777,10 +5781,10 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>215200</v>
+        <v>2152</v>
       </c>
       <c r="C19">
-        <v>6871800</v>
+        <v>68718</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5788,10 +5792,10 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>406800</v>
+        <v>4068</v>
       </c>
       <c r="C20">
-        <v>10891900</v>
+        <v>108919</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5799,10 +5803,10 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>347300</v>
+        <v>3473</v>
       </c>
       <c r="C21">
-        <v>10769900</v>
+        <v>107699</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5810,10 +5814,10 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>116500</v>
+        <v>1165</v>
       </c>
       <c r="C22">
-        <v>3199300</v>
+        <v>31993</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5821,10 +5825,10 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>266900</v>
+        <v>2669</v>
       </c>
       <c r="C23">
-        <v>15181700</v>
+        <v>151817</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5832,10 +5836,10 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>342000</v>
+        <v>3420</v>
       </c>
       <c r="C24">
-        <v>17336100</v>
+        <v>173361</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5843,10 +5847,10 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>704200</v>
+        <v>7042</v>
       </c>
       <c r="C25">
-        <v>24439100</v>
+        <v>244391</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5854,10 +5858,10 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>358800</v>
+        <v>3588</v>
       </c>
       <c r="C26">
-        <v>13696200</v>
+        <v>136962</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5865,10 +5869,10 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>241300</v>
+        <v>2413</v>
       </c>
       <c r="C27">
-        <v>6836100</v>
+        <v>68361</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5876,10 +5880,10 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>479400</v>
+        <v>4794</v>
       </c>
       <c r="C28">
-        <v>14812100</v>
+        <v>148121</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5887,10 +5891,10 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>84700</v>
+        <v>847</v>
       </c>
       <c r="C29">
-        <v>2399900</v>
+        <v>23999</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5898,10 +5902,10 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>132300</v>
+        <v>1323</v>
       </c>
       <c r="C30">
-        <v>4491900</v>
+        <v>44919</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5909,10 +5913,10 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>198200</v>
+        <v>1982</v>
       </c>
       <c r="C31">
-        <v>6747500</v>
+        <v>67475</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5920,10 +5924,10 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>90300</v>
+        <v>903</v>
       </c>
       <c r="C32">
-        <v>3458100</v>
+        <v>34581</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -5931,10 +5935,10 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>355700</v>
+        <v>3557</v>
       </c>
       <c r="C33">
-        <v>22631000</v>
+        <v>226310</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -5942,10 +5946,10 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>172200</v>
+        <v>1722</v>
       </c>
       <c r="C34">
-        <v>4597900</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -5953,10 +5957,10 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>939200</v>
+        <v>9392</v>
       </c>
       <c r="C35">
-        <v>49679300</v>
+        <v>496793</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -5964,10 +5968,10 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>643000</v>
+        <v>6430</v>
       </c>
       <c r="C36">
-        <v>24222100</v>
+        <v>242221</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5975,10 +5979,10 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>55200</v>
+        <v>552</v>
       </c>
       <c r="C37">
-        <v>1820600</v>
+        <v>18206</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5986,10 +5990,10 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>768200</v>
+        <v>7682</v>
       </c>
       <c r="C38">
-        <v>28945600</v>
+        <v>289456</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -5997,10 +6001,10 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>376500</v>
+        <v>3765</v>
       </c>
       <c r="C39">
-        <v>8598400</v>
+        <v>85984</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -6008,10 +6012,10 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>323700</v>
+        <v>3237</v>
       </c>
       <c r="C40">
-        <v>9908200</v>
+        <v>99082</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -6019,10 +6023,10 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>794900</v>
+        <v>7949</v>
       </c>
       <c r="C41">
-        <v>31578800</v>
+        <v>315788</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -6030,10 +6034,10 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>56500</v>
+        <v>565</v>
       </c>
       <c r="C42">
-        <v>2647500</v>
+        <v>26475</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -6041,10 +6045,10 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>326300</v>
+        <v>3263</v>
       </c>
       <c r="C43">
-        <v>11471900</v>
+        <v>114719</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -6052,10 +6056,10 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>62500</v>
+        <v>625</v>
       </c>
       <c r="C44">
-        <v>1988900</v>
+        <v>19889</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -6063,10 +6067,10 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>515000</v>
+        <v>5150</v>
       </c>
       <c r="C45">
-        <v>16044300</v>
+        <v>160443</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -6074,10 +6078,10 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>1674500</v>
+        <v>16745</v>
       </c>
       <c r="C46">
-        <v>62476400</v>
+        <v>624764</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -6085,10 +6089,10 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>156800</v>
+        <v>1568</v>
       </c>
       <c r="C47">
-        <v>6632500</v>
+        <v>66325</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -6096,10 +6100,10 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>51100</v>
+        <v>511</v>
       </c>
       <c r="C48">
-        <v>1622100</v>
+        <v>16221</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -6107,10 +6111,10 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>447000</v>
+        <v>4470</v>
       </c>
       <c r="C49">
-        <v>21137200</v>
+        <v>211372</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -6118,10 +6122,10 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>538700</v>
+        <v>5387</v>
       </c>
       <c r="C50">
-        <v>17909700</v>
+        <v>179097</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -6129,10 +6133,10 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>207200</v>
+        <v>2072</v>
       </c>
       <c r="C51">
-        <v>4354500</v>
+        <v>43545</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6140,10 +6144,10 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>371500</v>
+        <v>3715</v>
       </c>
       <c r="C52">
-        <v>14670000</v>
+        <v>146700</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -6151,10 +6155,10 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>57900</v>
+        <v>579</v>
       </c>
       <c r="C53">
-        <v>1418100</v>
+        <v>14181</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -6162,10 +6166,10 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>227900</v>
+        <v>2279</v>
       </c>
       <c r="C54">
-        <v>7428400</v>
+        <v>74284</v>
       </c>
     </row>
   </sheetData>
